--- a/config/excel/Stage.xlsx
+++ b/config/excel/Stage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29560" windowHeight="17020"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="DemoStage" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="97">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -163,6 +163,150 @@
   </si>
   <si>
     <t>关卡2描述</t>
+  </si>
+  <si>
+    <t>pic3</t>
+  </si>
+  <si>
+    <t>关卡3</t>
+  </si>
+  <si>
+    <t>关卡3描述</t>
+  </si>
+  <si>
+    <t>pic4</t>
+  </si>
+  <si>
+    <t>关卡4</t>
+  </si>
+  <si>
+    <t>关卡4描述</t>
+  </si>
+  <si>
+    <t>pic5</t>
+  </si>
+  <si>
+    <t>关卡5</t>
+  </si>
+  <si>
+    <t>关卡5描述</t>
+  </si>
+  <si>
+    <t>pic6</t>
+  </si>
+  <si>
+    <t>关卡6</t>
+  </si>
+  <si>
+    <t>关卡6描述</t>
+  </si>
+  <si>
+    <t>pic7</t>
+  </si>
+  <si>
+    <t>关卡7</t>
+  </si>
+  <si>
+    <t>关卡7描述</t>
+  </si>
+  <si>
+    <t>pic8</t>
+  </si>
+  <si>
+    <t>关卡8</t>
+  </si>
+  <si>
+    <t>关卡8描述</t>
+  </si>
+  <si>
+    <t>pic9</t>
+  </si>
+  <si>
+    <t>关卡9</t>
+  </si>
+  <si>
+    <t>关卡9描述</t>
+  </si>
+  <si>
+    <t>pic10</t>
+  </si>
+  <si>
+    <t>关卡10</t>
+  </si>
+  <si>
+    <t>关卡10描述</t>
+  </si>
+  <si>
+    <t>pic11</t>
+  </si>
+  <si>
+    <t>关卡11</t>
+  </si>
+  <si>
+    <t>关卡11描述</t>
+  </si>
+  <si>
+    <t>pic12</t>
+  </si>
+  <si>
+    <t>关卡12</t>
+  </si>
+  <si>
+    <t>关卡12描述</t>
+  </si>
+  <si>
+    <t>pic13</t>
+  </si>
+  <si>
+    <t>关卡13</t>
+  </si>
+  <si>
+    <t>关卡13描述</t>
+  </si>
+  <si>
+    <t>pic14</t>
+  </si>
+  <si>
+    <t>关卡14</t>
+  </si>
+  <si>
+    <t>关卡14描述</t>
+  </si>
+  <si>
+    <t>pic15</t>
+  </si>
+  <si>
+    <t>关卡15</t>
+  </si>
+  <si>
+    <t>关卡15描述</t>
+  </si>
+  <si>
+    <t>pic16</t>
+  </si>
+  <si>
+    <t>关卡16</t>
+  </si>
+  <si>
+    <t>关卡16描述</t>
+  </si>
+  <si>
+    <t>pic17</t>
+  </si>
+  <si>
+    <t>关卡17</t>
+  </si>
+  <si>
+    <t>关卡17描述</t>
+  </si>
+  <si>
+    <t>pic18</t>
+  </si>
+  <si>
+    <t>关卡18</t>
+  </si>
+  <si>
+    <t>关卡18描述</t>
   </si>
 </sst>
 </file>
@@ -170,10 +314,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -211,20 +355,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -240,10 +370,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -255,6 +431,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -263,16 +461,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,9 +476,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,21 +492,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -324,43 +499,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -401,192 +545,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -634,32 +778,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="1"/>
       </left>
@@ -678,6 +796,19 @@
       </left>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
@@ -713,6 +844,19 @@
     </border>
     <border>
       <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color theme="1"/>
       </left>
       <right style="thin">
@@ -742,11 +886,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,22 +905,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,6 +936,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -816,11 +960,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,155 +989,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1001,7 +1160,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1010,126 +1172,108 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1141,8 +1285,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="C1:Q8" totalsRowShown="0">
-  <autoFilter ref="C1:Q8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="C1:Q24" totalsRowShown="0">
+  <autoFilter ref="C1:Q24"/>
   <tableColumns count="15">
     <tableColumn id="1" name="关卡id"/>
     <tableColumn id="2" name="前置关卡id"/>
@@ -1420,28 +1564,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21:P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="22.9285714285714" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.925" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="10.25" style="1" customWidth="1"/>
-    <col min="4" max="6" width="11.2857142857143" style="1" customWidth="1"/>
+    <col min="4" max="6" width="11.2833333333333" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="9.92857142857143" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.3482142857143" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.925" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.35" style="1" customWidth="1"/>
     <col min="10" max="10" width="15" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.0714285714286" style="1" customWidth="1"/>
-    <col min="12" max="13" width="16.2142857142857" style="1" customWidth="1"/>
-    <col min="14" max="14" width="24.1071428571429" style="1" customWidth="1"/>
-    <col min="15" max="16" width="15.7142857142857" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.075" style="1" customWidth="1"/>
+    <col min="12" max="13" width="16.2166666666667" style="1" customWidth="1"/>
+    <col min="14" max="14" width="24.1083333333333" style="1" customWidth="1"/>
+    <col min="15" max="16" width="15.7166666666667" style="1" customWidth="1"/>
     <col min="17" max="17" width="14" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
@@ -1456,339 +1600,1097 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="75" spans="1:17">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
+    <row r="2" ht="42.75" spans="1:17">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="22" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="29" t="s">
+      <c r="J2" s="5"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
     </row>
     <row r="3" spans="2:17">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25" t="s">
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="P3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="Q3" s="21" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="2:17">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25" t="s">
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="25" t="s">
+      <c r="O4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="25" t="s">
+      <c r="P4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="25" t="s">
+      <c r="Q4" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:17">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="18" t="s">
+      <c r="I5" s="15"/>
+      <c r="J5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
     </row>
     <row r="6" spans="2:17">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25" t="s">
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="O6" s="25" t="s">
+      <c r="O6" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="P6" s="25" t="s">
+      <c r="P6" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" s="25" t="s">
+      <c r="Q6" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" ht="16.8" spans="2:17">
-      <c r="B7" s="10"/>
-      <c r="C7" s="8">
+    <row r="7" spans="2:17">
+      <c r="B7" s="12"/>
+      <c r="C7" s="9">
         <v>1</v>
       </c>
       <c r="D7" s="9">
         <v>-1</v>
       </c>
-      <c r="E7" s="16">
-        <v>1</v>
-      </c>
-      <c r="F7" s="16">
-        <v>1</v>
-      </c>
-      <c r="G7" s="16" t="s">
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="11">
         <v>0</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="27">
-        <v>1</v>
-      </c>
-      <c r="L7" s="27">
-        <v>1</v>
-      </c>
-      <c r="M7" s="27">
-        <v>1</v>
-      </c>
-      <c r="N7" s="30" t="str">
+      <c r="K7" s="22">
+        <v>1</v>
+      </c>
+      <c r="L7" s="22">
+        <v>1</v>
+      </c>
+      <c r="M7" s="22">
+        <v>1</v>
+      </c>
+      <c r="N7" s="23" t="str">
         <f>K7&amp;","&amp;L7&amp;","&amp;M7</f>
         <v>1,1,1</v>
       </c>
-      <c r="O7" s="27">
-        <v>1</v>
-      </c>
-      <c r="P7" s="27">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="27">
+      <c r="O7" s="24">
+        <v>2000</v>
+      </c>
+      <c r="P7" s="24">
+        <v>2030</v>
+      </c>
+      <c r="Q7" s="22">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:17">
-      <c r="B8" s="10"/>
-      <c r="C8" s="8">
+      <c r="B8" s="12"/>
+      <c r="C8" s="9">
         <v>2</v>
       </c>
       <c r="D8" s="9">
         <v>1</v>
       </c>
-      <c r="E8" s="16">
-        <v>1</v>
-      </c>
-      <c r="F8" s="16">
-        <v>1</v>
-      </c>
-      <c r="G8" s="16" t="s">
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="11">
         <v>0</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="J8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="28">
-        <v>2</v>
-      </c>
-      <c r="L8" s="28">
-        <v>2</v>
-      </c>
-      <c r="M8" s="28">
-        <v>2</v>
-      </c>
-      <c r="N8" s="28" t="str">
+      <c r="K8" s="25">
+        <v>2</v>
+      </c>
+      <c r="L8" s="25">
+        <v>2</v>
+      </c>
+      <c r="M8" s="25">
+        <v>2</v>
+      </c>
+      <c r="N8" s="25" t="str">
         <f>K8&amp;","&amp;L8&amp;","&amp;M8</f>
         <v>2,2,2</v>
       </c>
-      <c r="O8" s="28">
-        <v>1</v>
-      </c>
-      <c r="P8" s="28">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="28">
+      <c r="O8" s="24">
+        <v>2001</v>
+      </c>
+      <c r="P8" s="24">
+        <v>2031</v>
+      </c>
+      <c r="Q8" s="25">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="3:10">
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+    <row r="9" spans="3:17">
+      <c r="C9" s="9">
+        <v>3</v>
+      </c>
+      <c r="D9" s="9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="16">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="16">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="25">
+        <v>2</v>
+      </c>
+      <c r="L9" s="25">
+        <v>2</v>
+      </c>
+      <c r="M9" s="25">
+        <v>2</v>
+      </c>
+      <c r="N9" s="23" t="str">
+        <f t="shared" ref="N9:N24" si="0">K9&amp;","&amp;L9&amp;","&amp;M9</f>
+        <v>2,2,2</v>
+      </c>
+      <c r="O9" s="24">
+        <v>2002</v>
+      </c>
+      <c r="P9" s="24">
+        <v>2032</v>
+      </c>
+      <c r="Q9" s="22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="3:17">
+      <c r="C10" s="9">
+        <v>4</v>
+      </c>
+      <c r="D10" s="9">
+        <v>3</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="25">
+        <v>2</v>
+      </c>
+      <c r="L10" s="25">
+        <v>2</v>
+      </c>
+      <c r="M10" s="25">
+        <v>2</v>
+      </c>
+      <c r="N10" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>2,2,2</v>
+      </c>
+      <c r="O10" s="24">
+        <v>2003</v>
+      </c>
+      <c r="P10" s="24">
+        <v>2033</v>
+      </c>
+      <c r="Q10" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="3:17">
+      <c r="C11" s="9">
+        <v>5</v>
+      </c>
+      <c r="D11" s="9">
+        <v>4</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="25">
+        <v>2</v>
+      </c>
+      <c r="L11" s="25">
+        <v>2</v>
+      </c>
+      <c r="M11" s="25">
+        <v>2</v>
+      </c>
+      <c r="N11" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>2,2,2</v>
+      </c>
+      <c r="O11" s="24">
+        <v>2004</v>
+      </c>
+      <c r="P11" s="24">
+        <v>2034</v>
+      </c>
+      <c r="Q11" s="22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="3:17">
+      <c r="C12" s="9">
+        <v>6</v>
+      </c>
+      <c r="D12" s="9">
+        <v>5</v>
+      </c>
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="16">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="25">
+        <v>2</v>
+      </c>
+      <c r="L12" s="25">
+        <v>2</v>
+      </c>
+      <c r="M12" s="25">
+        <v>2</v>
+      </c>
+      <c r="N12" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>2,2,2</v>
+      </c>
+      <c r="O12" s="24">
+        <v>2005</v>
+      </c>
+      <c r="P12" s="24">
+        <v>2035</v>
+      </c>
+      <c r="Q12" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="3:17">
+      <c r="C13" s="9">
+        <v>7</v>
+      </c>
+      <c r="D13" s="9">
+        <v>6</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="25">
+        <v>2</v>
+      </c>
+      <c r="L13" s="25">
+        <v>2</v>
+      </c>
+      <c r="M13" s="25">
+        <v>2</v>
+      </c>
+      <c r="N13" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>2,2,2</v>
+      </c>
+      <c r="O13" s="24">
+        <v>2006</v>
+      </c>
+      <c r="P13" s="24">
+        <v>2036</v>
+      </c>
+      <c r="Q13" s="22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="3:17">
+      <c r="C14" s="9">
+        <v>8</v>
+      </c>
+      <c r="D14" s="9">
+        <v>7</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="25">
+        <v>2</v>
+      </c>
+      <c r="L14" s="25">
+        <v>2</v>
+      </c>
+      <c r="M14" s="25">
+        <v>2</v>
+      </c>
+      <c r="N14" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>2,2,2</v>
+      </c>
+      <c r="O14" s="24">
+        <v>2010</v>
+      </c>
+      <c r="P14" s="24">
+        <v>2040</v>
+      </c>
+      <c r="Q14" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="3:17">
+      <c r="C15" s="9">
+        <v>9</v>
+      </c>
+      <c r="D15" s="9">
+        <v>8</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="16">
+        <v>0</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15" s="25">
+        <v>2</v>
+      </c>
+      <c r="L15" s="25">
+        <v>2</v>
+      </c>
+      <c r="M15" s="25">
+        <v>2</v>
+      </c>
+      <c r="N15" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>2,2,2</v>
+      </c>
+      <c r="O15" s="24">
+        <v>2011</v>
+      </c>
+      <c r="P15" s="24">
+        <v>2041</v>
+      </c>
+      <c r="Q15" s="22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="3:17">
+      <c r="C16" s="9">
+        <v>10</v>
+      </c>
+      <c r="D16" s="9">
+        <v>9</v>
+      </c>
+      <c r="E16" s="10">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" s="25">
+        <v>2</v>
+      </c>
+      <c r="L16" s="25">
+        <v>2</v>
+      </c>
+      <c r="M16" s="25">
+        <v>2</v>
+      </c>
+      <c r="N16" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>2,2,2</v>
+      </c>
+      <c r="O16" s="24">
+        <v>2012</v>
+      </c>
+      <c r="P16" s="24">
+        <v>2042</v>
+      </c>
+      <c r="Q16" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="3:17">
+      <c r="C17" s="9">
+        <v>11</v>
+      </c>
+      <c r="D17" s="9">
+        <v>10</v>
+      </c>
+      <c r="E17" s="10">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="25">
+        <v>2</v>
+      </c>
+      <c r="L17" s="25">
+        <v>2</v>
+      </c>
+      <c r="M17" s="25">
+        <v>2</v>
+      </c>
+      <c r="N17" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>2,2,2</v>
+      </c>
+      <c r="O17" s="24">
+        <v>2013</v>
+      </c>
+      <c r="P17" s="24">
+        <v>2043</v>
+      </c>
+      <c r="Q17" s="22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17">
+      <c r="C18" s="9">
+        <v>12</v>
+      </c>
+      <c r="D18" s="9">
+        <v>11</v>
+      </c>
+      <c r="E18" s="10">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="16">
+        <v>0</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="25">
+        <v>2</v>
+      </c>
+      <c r="L18" s="25">
+        <v>2</v>
+      </c>
+      <c r="M18" s="25">
+        <v>2</v>
+      </c>
+      <c r="N18" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>2,2,2</v>
+      </c>
+      <c r="O18" s="24">
+        <v>2014</v>
+      </c>
+      <c r="P18" s="24">
+        <v>2044</v>
+      </c>
+      <c r="Q18" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17">
+      <c r="C19" s="9">
+        <v>13</v>
+      </c>
+      <c r="D19" s="9">
+        <v>12</v>
+      </c>
+      <c r="E19" s="10">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="K19" s="25">
+        <v>2</v>
+      </c>
+      <c r="L19" s="25">
+        <v>2</v>
+      </c>
+      <c r="M19" s="25">
+        <v>2</v>
+      </c>
+      <c r="N19" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>2,2,2</v>
+      </c>
+      <c r="O19" s="24">
+        <v>2015</v>
+      </c>
+      <c r="P19" s="24">
+        <v>2045</v>
+      </c>
+      <c r="Q19" s="22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="3:17">
+      <c r="C20" s="9">
+        <v>14</v>
+      </c>
+      <c r="D20" s="9">
+        <v>13</v>
+      </c>
+      <c r="E20" s="10">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" s="11">
+        <v>0</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" s="25">
+        <v>2</v>
+      </c>
+      <c r="L20" s="25">
+        <v>2</v>
+      </c>
+      <c r="M20" s="25">
+        <v>2</v>
+      </c>
+      <c r="N20" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>2,2,2</v>
+      </c>
+      <c r="O20" s="24">
+        <v>2016</v>
+      </c>
+      <c r="P20" s="24">
+        <v>2046</v>
+      </c>
+      <c r="Q20" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17">
+      <c r="C21" s="9">
+        <v>15</v>
+      </c>
+      <c r="D21" s="9">
+        <v>14</v>
+      </c>
+      <c r="E21" s="10">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" s="16">
+        <v>0</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="K21" s="25">
+        <v>2</v>
+      </c>
+      <c r="L21" s="25">
+        <v>2</v>
+      </c>
+      <c r="M21" s="25">
+        <v>2</v>
+      </c>
+      <c r="N21" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>2,2,2</v>
+      </c>
+      <c r="O21" s="1">
+        <v>2020</v>
+      </c>
+      <c r="P21" s="26">
+        <v>2050</v>
+      </c>
+      <c r="Q21" s="22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17">
+      <c r="C22" s="9">
+        <v>16</v>
+      </c>
+      <c r="D22" s="9">
+        <v>15</v>
+      </c>
+      <c r="E22" s="10">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K22" s="25">
+        <v>2</v>
+      </c>
+      <c r="L22" s="25">
+        <v>2</v>
+      </c>
+      <c r="M22" s="25">
+        <v>2</v>
+      </c>
+      <c r="N22" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>2,2,2</v>
+      </c>
+      <c r="O22" s="1">
+        <v>2021</v>
+      </c>
+      <c r="P22" s="27">
+        <v>2051</v>
+      </c>
+      <c r="Q22" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17">
+      <c r="C23" s="9">
+        <v>17</v>
+      </c>
+      <c r="D23" s="9">
+        <v>16</v>
+      </c>
+      <c r="E23" s="10">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K23" s="25">
+        <v>2</v>
+      </c>
+      <c r="L23" s="25">
+        <v>2</v>
+      </c>
+      <c r="M23" s="25">
+        <v>2</v>
+      </c>
+      <c r="N23" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>2,2,2</v>
+      </c>
+      <c r="O23" s="1">
+        <v>2022</v>
+      </c>
+      <c r="P23" s="27">
+        <v>2052</v>
+      </c>
+      <c r="Q23" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17">
+      <c r="C24" s="9">
+        <v>18</v>
+      </c>
+      <c r="D24" s="9">
+        <v>17</v>
+      </c>
+      <c r="E24" s="10">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>3</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K24" s="25">
+        <v>2</v>
+      </c>
+      <c r="L24" s="25">
+        <v>2</v>
+      </c>
+      <c r="M24" s="25">
+        <v>2</v>
+      </c>
+      <c r="N24" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>2,2,2</v>
+      </c>
+      <c r="O24" s="1">
+        <v>2023</v>
+      </c>
+      <c r="P24" s="27">
+        <v>2053</v>
+      </c>
+      <c r="Q24" s="25">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/excel/Stage.xlsx
+++ b/config/excel/Stage.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="29560" windowHeight="17020"/>
   </bookViews>
   <sheets>
-    <sheet name="DemoStage" sheetId="2" r:id="rId1"/>
+    <sheet name="Stage" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -87,7 +87,7 @@
     <t>prevStageId</t>
   </si>
   <si>
-    <t>lockId</t>
+    <t>conditionId</t>
   </si>
   <si>
     <t>chapterId</t>
@@ -315,9 +315,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -355,16 +355,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,41 +369,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -423,16 +385,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,10 +401,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -462,7 +418,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,7 +441,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,7 +449,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,7 +463,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,187 +545,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,6 +778,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color theme="1"/>
       </left>
@@ -796,19 +809,6 @@
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
@@ -910,6 +910,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -925,26 +958,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -956,21 +969,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -992,157 +990,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1160,18 +1160,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1181,12 +1187,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1199,81 +1199,81 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1564,28 +1564,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21:P24"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
   <cols>
-    <col min="1" max="1" width="22.925" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.9285714285714" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="10.25" style="1" customWidth="1"/>
-    <col min="4" max="6" width="11.2833333333333" style="1" customWidth="1"/>
+    <col min="4" max="6" width="11.2857142857143" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="9.925" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.35" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.92857142857143" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.3482142857143" style="1" customWidth="1"/>
     <col min="10" max="10" width="15" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.075" style="1" customWidth="1"/>
-    <col min="12" max="13" width="16.2166666666667" style="1" customWidth="1"/>
-    <col min="14" max="14" width="24.1083333333333" style="1" customWidth="1"/>
-    <col min="15" max="16" width="15.7166666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.0714285714286" style="1" customWidth="1"/>
+    <col min="12" max="13" width="16.2142857142857" style="1" customWidth="1"/>
+    <col min="14" max="14" width="24.1071428571429" style="1" customWidth="1"/>
+    <col min="15" max="16" width="15.7142857142857" style="1" customWidth="1"/>
     <col min="17" max="17" width="14" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
@@ -1603,22 +1603,22 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="17" t="s">
@@ -1643,25 +1643,25 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="42.75" spans="1:17">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+    <row r="2" ht="38" spans="1:17">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13"/>
       <c r="I2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="5"/>
+      <c r="J2" s="10"/>
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="23" t="s">
         <v>19</v>
       </c>
       <c r="O2" s="19"/>
@@ -1669,13 +1669,13 @@
       <c r="Q2" s="19"/>
     </row>
     <row r="3" spans="2:17">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="14" t="s">
@@ -1696,30 +1696,30 @@
       <c r="J3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21" t="s">
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="21" t="s">
+      <c r="P3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="Q3" s="20" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="2:17">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="14" t="s">
@@ -1740,28 +1740,28 @@
       <c r="J4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21" t="s">
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="21" t="s">
+      <c r="O4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="21" t="s">
+      <c r="P4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="Q4" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:17">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14" t="s">
@@ -1774,22 +1774,22 @@
       <c r="J5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
     </row>
     <row r="6" spans="2:17">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="14" t="s">
@@ -1810,731 +1810,731 @@
       <c r="J6" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21" t="s">
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="O6" s="21" t="s">
+      <c r="O6" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="P6" s="21" t="s">
+      <c r="P6" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" s="21" t="s">
+      <c r="Q6" s="20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="2:17">
-      <c r="B7" s="12"/>
-      <c r="C7" s="9">
-        <v>1</v>
-      </c>
-      <c r="D7" s="9">
+    <row r="7" ht="16.8" spans="2:17">
+      <c r="B7" s="8"/>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
         <v>-1</v>
       </c>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10" t="s">
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="13">
         <v>0</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="22">
-        <v>1</v>
-      </c>
-      <c r="L7" s="22">
-        <v>1</v>
-      </c>
-      <c r="M7" s="22">
-        <v>1</v>
-      </c>
-      <c r="N7" s="23" t="str">
+      <c r="K7" s="21">
+        <v>1</v>
+      </c>
+      <c r="L7" s="21">
+        <v>1</v>
+      </c>
+      <c r="M7" s="21">
+        <v>1</v>
+      </c>
+      <c r="N7" s="24" t="str">
         <f>K7&amp;","&amp;L7&amp;","&amp;M7</f>
         <v>1,1,1</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="25">
         <v>2000</v>
       </c>
-      <c r="P7" s="24">
+      <c r="P7" s="25">
         <v>2030</v>
       </c>
-      <c r="Q7" s="22">
+      <c r="Q7" s="21">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:17">
-      <c r="B8" s="12"/>
-      <c r="C8" s="9">
-        <v>2</v>
-      </c>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10">
-        <v>1</v>
-      </c>
-      <c r="G8" s="10" t="s">
+    <row r="8" ht="16.8" spans="2:17">
+      <c r="B8" s="8"/>
+      <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12">
+        <v>1</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="13">
         <v>0</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="25">
-        <v>2</v>
-      </c>
-      <c r="L8" s="25">
-        <v>2</v>
-      </c>
-      <c r="M8" s="25">
-        <v>2</v>
-      </c>
-      <c r="N8" s="25" t="str">
+      <c r="K8" s="22">
+        <v>2</v>
+      </c>
+      <c r="L8" s="22">
+        <v>2</v>
+      </c>
+      <c r="M8" s="22">
+        <v>2</v>
+      </c>
+      <c r="N8" s="22" t="str">
         <f>K8&amp;","&amp;L8&amp;","&amp;M8</f>
         <v>2,2,2</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="25">
         <v>2001</v>
       </c>
-      <c r="P8" s="24">
+      <c r="P8" s="25">
         <v>2031</v>
       </c>
-      <c r="Q8" s="25">
+      <c r="Q8" s="22">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="3:17">
-      <c r="C9" s="9">
+    <row r="9" ht="16.8" spans="3:17">
+      <c r="C9" s="7">
         <v>3</v>
       </c>
-      <c r="D9" s="9">
-        <v>2</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="D9" s="7">
+        <v>2</v>
+      </c>
+      <c r="E9" s="12">
         <v>1</v>
       </c>
       <c r="F9" s="16">
         <v>1</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="13" t="s">
         <v>50</v>
       </c>
       <c r="I9" s="16">
         <v>0</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="25">
-        <v>2</v>
-      </c>
-      <c r="L9" s="25">
-        <v>2</v>
-      </c>
-      <c r="M9" s="25">
-        <v>2</v>
-      </c>
-      <c r="N9" s="23" t="str">
+      <c r="K9" s="22">
+        <v>2</v>
+      </c>
+      <c r="L9" s="22">
+        <v>2</v>
+      </c>
+      <c r="M9" s="22">
+        <v>2</v>
+      </c>
+      <c r="N9" s="24" t="str">
         <f t="shared" ref="N9:N24" si="0">K9&amp;","&amp;L9&amp;","&amp;M9</f>
         <v>2,2,2</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="25">
         <v>2002</v>
       </c>
-      <c r="P9" s="24">
+      <c r="P9" s="25">
         <v>2032</v>
       </c>
-      <c r="Q9" s="22">
+      <c r="Q9" s="21">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="3:17">
-      <c r="C10" s="9">
+    <row r="10" ht="16.8" spans="3:17">
+      <c r="C10" s="7">
         <v>4</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="7">
         <v>3</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="12">
         <v>1</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="13">
         <v>0</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="25">
-        <v>2</v>
-      </c>
-      <c r="L10" s="25">
-        <v>2</v>
-      </c>
-      <c r="M10" s="25">
-        <v>2</v>
-      </c>
-      <c r="N10" s="25" t="str">
+      <c r="K10" s="22">
+        <v>2</v>
+      </c>
+      <c r="L10" s="22">
+        <v>2</v>
+      </c>
+      <c r="M10" s="22">
+        <v>2</v>
+      </c>
+      <c r="N10" s="22" t="str">
         <f t="shared" si="0"/>
         <v>2,2,2</v>
       </c>
-      <c r="O10" s="24">
+      <c r="O10" s="25">
         <v>2003</v>
       </c>
-      <c r="P10" s="24">
+      <c r="P10" s="25">
         <v>2033</v>
       </c>
-      <c r="Q10" s="25">
+      <c r="Q10" s="22">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="3:17">
-      <c r="C11" s="9">
+    <row r="11" ht="16.8" spans="3:17">
+      <c r="C11" s="7">
         <v>5</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="7">
         <v>4</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="12">
         <v>1</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="13">
         <v>0</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="K11" s="25">
-        <v>2</v>
-      </c>
-      <c r="L11" s="25">
-        <v>2</v>
-      </c>
-      <c r="M11" s="25">
-        <v>2</v>
-      </c>
-      <c r="N11" s="23" t="str">
+      <c r="K11" s="22">
+        <v>2</v>
+      </c>
+      <c r="L11" s="22">
+        <v>2</v>
+      </c>
+      <c r="M11" s="22">
+        <v>2</v>
+      </c>
+      <c r="N11" s="24" t="str">
         <f t="shared" si="0"/>
         <v>2,2,2</v>
       </c>
-      <c r="O11" s="24">
+      <c r="O11" s="25">
         <v>2004</v>
       </c>
-      <c r="P11" s="24">
+      <c r="P11" s="25">
         <v>2034</v>
       </c>
-      <c r="Q11" s="22">
+      <c r="Q11" s="21">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="3:17">
-      <c r="C12" s="9">
+    <row r="12" ht="16.8" spans="3:17">
+      <c r="C12" s="7">
         <v>6</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="7">
         <v>5</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="12">
         <v>1</v>
       </c>
       <c r="F12" s="1">
         <v>2</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="13" t="s">
         <v>59</v>
       </c>
       <c r="I12" s="16">
         <v>0</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="K12" s="25">
-        <v>2</v>
-      </c>
-      <c r="L12" s="25">
-        <v>2</v>
-      </c>
-      <c r="M12" s="25">
-        <v>2</v>
-      </c>
-      <c r="N12" s="25" t="str">
+      <c r="K12" s="22">
+        <v>2</v>
+      </c>
+      <c r="L12" s="22">
+        <v>2</v>
+      </c>
+      <c r="M12" s="22">
+        <v>2</v>
+      </c>
+      <c r="N12" s="22" t="str">
         <f t="shared" si="0"/>
         <v>2,2,2</v>
       </c>
-      <c r="O12" s="24">
+      <c r="O12" s="25">
         <v>2005</v>
       </c>
-      <c r="P12" s="24">
+      <c r="P12" s="25">
         <v>2035</v>
       </c>
-      <c r="Q12" s="25">
+      <c r="Q12" s="22">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="3:17">
-      <c r="C13" s="9">
+    <row r="13" ht="16.8" spans="3:17">
+      <c r="C13" s="7">
         <v>7</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="7">
         <v>6</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="12">
         <v>1</v>
       </c>
       <c r="F13" s="1">
         <v>2</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="13">
         <v>0</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="K13" s="25">
-        <v>2</v>
-      </c>
-      <c r="L13" s="25">
-        <v>2</v>
-      </c>
-      <c r="M13" s="25">
-        <v>2</v>
-      </c>
-      <c r="N13" s="23" t="str">
+      <c r="K13" s="22">
+        <v>2</v>
+      </c>
+      <c r="L13" s="22">
+        <v>2</v>
+      </c>
+      <c r="M13" s="22">
+        <v>2</v>
+      </c>
+      <c r="N13" s="24" t="str">
         <f t="shared" si="0"/>
         <v>2,2,2</v>
       </c>
-      <c r="O13" s="24">
+      <c r="O13" s="25">
         <v>2006</v>
       </c>
-      <c r="P13" s="24">
+      <c r="P13" s="25">
         <v>2036</v>
       </c>
-      <c r="Q13" s="22">
+      <c r="Q13" s="21">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="3:17">
-      <c r="C14" s="9">
+    <row r="14" ht="16.8" spans="3:17">
+      <c r="C14" s="7">
         <v>8</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="7">
         <v>7</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="12">
         <v>1</v>
       </c>
       <c r="F14" s="1">
         <v>2</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="13">
         <v>0</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="K14" s="25">
-        <v>2</v>
-      </c>
-      <c r="L14" s="25">
-        <v>2</v>
-      </c>
-      <c r="M14" s="25">
-        <v>2</v>
-      </c>
-      <c r="N14" s="25" t="str">
+      <c r="K14" s="22">
+        <v>2</v>
+      </c>
+      <c r="L14" s="22">
+        <v>2</v>
+      </c>
+      <c r="M14" s="22">
+        <v>2</v>
+      </c>
+      <c r="N14" s="22" t="str">
         <f t="shared" si="0"/>
         <v>2,2,2</v>
       </c>
-      <c r="O14" s="24">
+      <c r="O14" s="25">
         <v>2010</v>
       </c>
-      <c r="P14" s="24">
+      <c r="P14" s="25">
         <v>2040</v>
       </c>
-      <c r="Q14" s="25">
+      <c r="Q14" s="22">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="3:17">
-      <c r="C15" s="9">
+    <row r="15" ht="16.8" spans="3:17">
+      <c r="C15" s="7">
         <v>9</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="7">
         <v>8</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="12">
         <v>1</v>
       </c>
       <c r="F15" s="1">
         <v>2</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="13" t="s">
         <v>68</v>
       </c>
       <c r="I15" s="16">
         <v>0</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="K15" s="25">
-        <v>2</v>
-      </c>
-      <c r="L15" s="25">
-        <v>2</v>
-      </c>
-      <c r="M15" s="25">
-        <v>2</v>
-      </c>
-      <c r="N15" s="23" t="str">
+      <c r="K15" s="22">
+        <v>2</v>
+      </c>
+      <c r="L15" s="22">
+        <v>2</v>
+      </c>
+      <c r="M15" s="22">
+        <v>2</v>
+      </c>
+      <c r="N15" s="24" t="str">
         <f t="shared" si="0"/>
         <v>2,2,2</v>
       </c>
-      <c r="O15" s="24">
+      <c r="O15" s="25">
         <v>2011</v>
       </c>
-      <c r="P15" s="24">
+      <c r="P15" s="25">
         <v>2041</v>
       </c>
-      <c r="Q15" s="22">
+      <c r="Q15" s="21">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="3:17">
-      <c r="C16" s="9">
+    <row r="16" ht="16.8" spans="3:17">
+      <c r="C16" s="7">
         <v>10</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="7">
         <v>9</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="12">
         <v>1</v>
       </c>
       <c r="F16" s="1">
         <v>3</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="13">
         <v>0</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="K16" s="25">
-        <v>2</v>
-      </c>
-      <c r="L16" s="25">
-        <v>2</v>
-      </c>
-      <c r="M16" s="25">
-        <v>2</v>
-      </c>
-      <c r="N16" s="25" t="str">
+      <c r="K16" s="22">
+        <v>2</v>
+      </c>
+      <c r="L16" s="22">
+        <v>2</v>
+      </c>
+      <c r="M16" s="22">
+        <v>2</v>
+      </c>
+      <c r="N16" s="22" t="str">
         <f t="shared" si="0"/>
         <v>2,2,2</v>
       </c>
-      <c r="O16" s="24">
+      <c r="O16" s="25">
         <v>2012</v>
       </c>
-      <c r="P16" s="24">
+      <c r="P16" s="25">
         <v>2042</v>
       </c>
-      <c r="Q16" s="25">
+      <c r="Q16" s="22">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="3:17">
-      <c r="C17" s="9">
+    <row r="17" ht="16.8" spans="3:17">
+      <c r="C17" s="7">
         <v>11</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="7">
         <v>10</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="12">
         <v>1</v>
       </c>
       <c r="F17" s="1">
         <v>3</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="13">
         <v>0</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="K17" s="25">
-        <v>2</v>
-      </c>
-      <c r="L17" s="25">
-        <v>2</v>
-      </c>
-      <c r="M17" s="25">
-        <v>2</v>
-      </c>
-      <c r="N17" s="23" t="str">
+      <c r="K17" s="22">
+        <v>2</v>
+      </c>
+      <c r="L17" s="22">
+        <v>2</v>
+      </c>
+      <c r="M17" s="22">
+        <v>2</v>
+      </c>
+      <c r="N17" s="24" t="str">
         <f t="shared" si="0"/>
         <v>2,2,2</v>
       </c>
-      <c r="O17" s="24">
+      <c r="O17" s="25">
         <v>2013</v>
       </c>
-      <c r="P17" s="24">
+      <c r="P17" s="25">
         <v>2043</v>
       </c>
-      <c r="Q17" s="22">
+      <c r="Q17" s="21">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="3:17">
-      <c r="C18" s="9">
+    <row r="18" ht="16.8" spans="3:17">
+      <c r="C18" s="7">
         <v>12</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="7">
         <v>11</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="12">
         <v>1</v>
       </c>
       <c r="F18" s="1">
         <v>3</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="13" t="s">
         <v>77</v>
       </c>
       <c r="I18" s="16">
         <v>0</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="K18" s="25">
-        <v>2</v>
-      </c>
-      <c r="L18" s="25">
-        <v>2</v>
-      </c>
-      <c r="M18" s="25">
-        <v>2</v>
-      </c>
-      <c r="N18" s="25" t="str">
+      <c r="K18" s="22">
+        <v>2</v>
+      </c>
+      <c r="L18" s="22">
+        <v>2</v>
+      </c>
+      <c r="M18" s="22">
+        <v>2</v>
+      </c>
+      <c r="N18" s="22" t="str">
         <f t="shared" si="0"/>
         <v>2,2,2</v>
       </c>
-      <c r="O18" s="24">
+      <c r="O18" s="25">
         <v>2014</v>
       </c>
-      <c r="P18" s="24">
+      <c r="P18" s="25">
         <v>2044</v>
       </c>
-      <c r="Q18" s="25">
+      <c r="Q18" s="22">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="3:17">
-      <c r="C19" s="9">
+    <row r="19" ht="16.8" spans="3:17">
+      <c r="C19" s="7">
         <v>13</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="7">
         <v>12</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="12">
         <v>1</v>
       </c>
       <c r="F19" s="1">
         <v>3</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="13">
         <v>0</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="K19" s="25">
-        <v>2</v>
-      </c>
-      <c r="L19" s="25">
-        <v>2</v>
-      </c>
-      <c r="M19" s="25">
-        <v>2</v>
-      </c>
-      <c r="N19" s="23" t="str">
+      <c r="K19" s="22">
+        <v>2</v>
+      </c>
+      <c r="L19" s="22">
+        <v>2</v>
+      </c>
+      <c r="M19" s="22">
+        <v>2</v>
+      </c>
+      <c r="N19" s="24" t="str">
         <f t="shared" si="0"/>
         <v>2,2,2</v>
       </c>
-      <c r="O19" s="24">
+      <c r="O19" s="25">
         <v>2015</v>
       </c>
-      <c r="P19" s="24">
+      <c r="P19" s="25">
         <v>2045</v>
       </c>
-      <c r="Q19" s="22">
+      <c r="Q19" s="21">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="3:17">
-      <c r="C20" s="9">
+    <row r="20" ht="16.8" spans="3:17">
+      <c r="C20" s="7">
         <v>14</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="7">
         <v>13</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="12">
         <v>1</v>
       </c>
       <c r="F20" s="1">
         <v>3</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="13">
         <v>0</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="K20" s="25">
-        <v>2</v>
-      </c>
-      <c r="L20" s="25">
-        <v>2</v>
-      </c>
-      <c r="M20" s="25">
-        <v>2</v>
-      </c>
-      <c r="N20" s="25" t="str">
+      <c r="K20" s="22">
+        <v>2</v>
+      </c>
+      <c r="L20" s="22">
+        <v>2</v>
+      </c>
+      <c r="M20" s="22">
+        <v>2</v>
+      </c>
+      <c r="N20" s="22" t="str">
         <f t="shared" si="0"/>
         <v>2,2,2</v>
       </c>
-      <c r="O20" s="24">
+      <c r="O20" s="25">
         <v>2016</v>
       </c>
-      <c r="P20" s="24">
+      <c r="P20" s="25">
         <v>2046</v>
       </c>
-      <c r="Q20" s="25">
+      <c r="Q20" s="22">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="3:17">
-      <c r="C21" s="9">
+    <row r="21" ht="16.8" spans="3:17">
+      <c r="C21" s="7">
         <v>15</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="7">
         <v>14</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="12">
         <v>1</v>
       </c>
       <c r="F21" s="1">
         <v>3</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="13" t="s">
         <v>86</v>
       </c>
       <c r="I21" s="16">
         <v>0</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J21" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="K21" s="25">
-        <v>2</v>
-      </c>
-      <c r="L21" s="25">
-        <v>2</v>
-      </c>
-      <c r="M21" s="25">
-        <v>2</v>
-      </c>
-      <c r="N21" s="23" t="str">
+      <c r="K21" s="22">
+        <v>2</v>
+      </c>
+      <c r="L21" s="22">
+        <v>2</v>
+      </c>
+      <c r="M21" s="22">
+        <v>2</v>
+      </c>
+      <c r="N21" s="24" t="str">
         <f t="shared" si="0"/>
         <v>2,2,2</v>
       </c>
@@ -2544,45 +2544,45 @@
       <c r="P21" s="26">
         <v>2050</v>
       </c>
-      <c r="Q21" s="22">
+      <c r="Q21" s="21">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="3:17">
-      <c r="C22" s="9">
+    <row r="22" ht="16.8" spans="3:17">
+      <c r="C22" s="7">
         <v>16</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="7">
         <v>15</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="12">
         <v>1</v>
       </c>
       <c r="F22" s="1">
         <v>3</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="13" t="s">
         <v>89</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="K22" s="25">
-        <v>2</v>
-      </c>
-      <c r="L22" s="25">
-        <v>2</v>
-      </c>
-      <c r="M22" s="25">
-        <v>2</v>
-      </c>
-      <c r="N22" s="25" t="str">
+      <c r="K22" s="22">
+        <v>2</v>
+      </c>
+      <c r="L22" s="22">
+        <v>2</v>
+      </c>
+      <c r="M22" s="22">
+        <v>2</v>
+      </c>
+      <c r="N22" s="22" t="str">
         <f t="shared" si="0"/>
         <v>2,2,2</v>
       </c>
@@ -2592,45 +2592,45 @@
       <c r="P22" s="27">
         <v>2051</v>
       </c>
-      <c r="Q22" s="25">
+      <c r="Q22" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="3:17">
-      <c r="C23" s="9">
+    <row r="23" ht="16.8" spans="3:17">
+      <c r="C23" s="7">
         <v>17</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="7">
         <v>16</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="12">
         <v>1</v>
       </c>
       <c r="F23" s="1">
         <v>3</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="13" t="s">
         <v>92</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="K23" s="25">
-        <v>2</v>
-      </c>
-      <c r="L23" s="25">
-        <v>2</v>
-      </c>
-      <c r="M23" s="25">
-        <v>2</v>
-      </c>
-      <c r="N23" s="23" t="str">
+      <c r="K23" s="22">
+        <v>2</v>
+      </c>
+      <c r="L23" s="22">
+        <v>2</v>
+      </c>
+      <c r="M23" s="22">
+        <v>2</v>
+      </c>
+      <c r="N23" s="24" t="str">
         <f t="shared" si="0"/>
         <v>2,2,2</v>
       </c>
@@ -2640,45 +2640,45 @@
       <c r="P23" s="27">
         <v>2052</v>
       </c>
-      <c r="Q23" s="22">
+      <c r="Q23" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="3:17">
-      <c r="C24" s="9">
+    <row r="24" ht="16.8" spans="3:17">
+      <c r="C24" s="7">
         <v>18</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="7">
         <v>17</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="12">
         <v>1</v>
       </c>
       <c r="F24" s="1">
         <v>3</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="13" t="s">
         <v>95</v>
       </c>
       <c r="I24" s="1">
         <v>1</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J24" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="K24" s="25">
-        <v>2</v>
-      </c>
-      <c r="L24" s="25">
-        <v>2</v>
-      </c>
-      <c r="M24" s="25">
-        <v>2</v>
-      </c>
-      <c r="N24" s="25" t="str">
+      <c r="K24" s="22">
+        <v>2</v>
+      </c>
+      <c r="L24" s="22">
+        <v>2</v>
+      </c>
+      <c r="M24" s="22">
+        <v>2</v>
+      </c>
+      <c r="N24" s="22" t="str">
         <f t="shared" si="0"/>
         <v>2,2,2</v>
       </c>
@@ -2688,7 +2688,7 @@
       <c r="P24" s="27">
         <v>2053</v>
       </c>
-      <c r="Q24" s="25">
+      <c r="Q24" s="22">
         <v>3</v>
       </c>
     </row>

--- a/config/excel/Stage.xlsx
+++ b/config/excel/Stage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="29560" windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="Stage" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>每日挑战次数</t>
+  </si>
+  <si>
+    <t>场景id</t>
+  </si>
+  <si>
+    <t>怪物组id</t>
   </si>
   <si>
     <t>备注</t>
@@ -121,6 +127,12 @@
   </si>
   <si>
     <t>dailyTimes</t>
+  </si>
+  <si>
+    <t>sceneId</t>
+  </si>
+  <si>
+    <t>unitGroupId</t>
   </si>
   <si>
     <t>字段描述</t>
@@ -320,10 +332,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -362,6 +374,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -370,13 +389,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,17 +411,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -428,6 +440,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -435,9 +485,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,58 +517,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -551,13 +563,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,31 +641,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,127 +731,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,6 +796,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color theme="1"/>
       </left>
@@ -791,19 +816,6 @@
         <color theme="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
@@ -907,17 +919,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -926,22 +932,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -962,16 +953,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -980,16 +971,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1004,155 +1001,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1166,14 +1178,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1181,12 +1199,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1208,10 +1220,29 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1220,10 +1251,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1232,54 +1259,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1291,25 +1318,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="C1:R24" totalsRowShown="0">
-  <autoFilter ref="C1:R24"/>
-  <tableColumns count="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="C1:T24" totalsRowShown="0">
+  <autoFilter ref="C1:T24"/>
+  <tableColumns count="18">
     <tableColumn id="1" name="关卡id"/>
     <tableColumn id="2" name="前置关卡id"/>
     <tableColumn id="3" name="解锁条件id"/>
-    <tableColumn id="16" name="消耗体力"/>
-    <tableColumn id="4" name="所属章节"/>
-    <tableColumn id="5" name="关卡图"/>
-    <tableColumn id="6" name="关卡名"/>
-    <tableColumn id="7" name="关卡类型"/>
-    <tableColumn id="8" name="关卡描述"/>
-    <tableColumn id="9" name="星级挑战条件1"/>
-    <tableColumn id="10" name="星级挑战条件2"/>
-    <tableColumn id="11" name="星级挑战条件3"/>
-    <tableColumn id="12" name="星级挑战条件"/>
-    <tableColumn id="13" name="首次通关掉落id"/>
-    <tableColumn id="14" name="通关掉落id"/>
-    <tableColumn id="15" name="每日挑战次数"/>
+    <tableColumn id="4" name="消耗体力"/>
+    <tableColumn id="5" name="所属章节"/>
+    <tableColumn id="6" name="关卡图"/>
+    <tableColumn id="7" name="关卡名"/>
+    <tableColumn id="8" name="关卡类型"/>
+    <tableColumn id="9" name="关卡描述"/>
+    <tableColumn id="10" name="星级挑战条件1"/>
+    <tableColumn id="11" name="星级挑战条件2"/>
+    <tableColumn id="12" name="星级挑战条件3"/>
+    <tableColumn id="13" name="星级挑战条件"/>
+    <tableColumn id="14" name="首次通关掉落id"/>
+    <tableColumn id="15" name="通关掉落id"/>
+    <tableColumn id="16" name="每日挑战次数"/>
+    <tableColumn id="17" name="场景id"/>
+    <tableColumn id="18" name="怪物组id"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1571,33 +1600,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
   <cols>
-    <col min="1" max="1" width="22.925" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.9285714285714" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="10.25" style="1" customWidth="1"/>
-    <col min="4" max="7" width="11.2833333333333" style="1" customWidth="1"/>
+    <col min="4" max="7" width="11.2857142857143" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="9.925" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.35" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.92857142857143" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.3482142857143" style="1" customWidth="1"/>
     <col min="11" max="11" width="15" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.075" style="1" customWidth="1"/>
-    <col min="13" max="14" width="16.2166666666667" style="1" customWidth="1"/>
-    <col min="15" max="15" width="24.1083333333333" style="1" customWidth="1"/>
-    <col min="16" max="17" width="15.7166666666667" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.0714285714286" style="1" customWidth="1"/>
+    <col min="13" max="14" width="16.2142857142857" style="1" customWidth="1"/>
+    <col min="15" max="15" width="24.1071428571429" style="1" customWidth="1"/>
+    <col min="16" max="17" width="15.7142857142857" style="1" customWidth="1"/>
     <col min="18" max="18" width="14" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="19" max="19" width="7.42857142857143" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5714285714286" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1610,16 +1641,16 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="14" t="s">
@@ -1628,7 +1659,7 @@
       <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="15" t="s">
@@ -1652,88 +1683,102 @@
       <c r="R1" s="15" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="26" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" ht="42.75" spans="1:18">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+    <row r="2" ht="38" spans="1:20">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="16"/>
       <c r="J2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="K2" s="10"/>
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="19" t="s">
-        <v>20</v>
+      <c r="O2" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="P2" s="18"/>
       <c r="Q2" s="18"/>
       <c r="R2" s="18"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
     </row>
-    <row r="3" spans="2:18">
-      <c r="B3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="11" t="s">
+    <row r="3" spans="2:20">
+      <c r="B3" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="C3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="E3" s="12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="20" t="s">
         <v>29</v>
       </c>
+      <c r="I3" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="K3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="P3" s="20" t="s">
         <v>34</v>
       </c>
+      <c r="Q3" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" s="28" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="4" spans="2:18">
-      <c r="B4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="11" t="s">
+    <row r="4" spans="2:20">
+      <c r="B4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="12" t="s">
@@ -1743,1028 +1788,1150 @@
         <v>5</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="19" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="21" t="s">
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="Q4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="21" t="s">
+      <c r="R4" s="20" t="s">
         <v>17</v>
       </c>
+      <c r="S4" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="T4" s="28" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="2:18">
-      <c r="B5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+    <row r="5" spans="2:20">
+      <c r="B5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="20"/>
+        <v>44</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="19"/>
       <c r="K5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
+        <v>44</v>
+      </c>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
     </row>
-    <row r="6" spans="2:18">
-      <c r="B6" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>42</v>
+    <row r="6" spans="2:20">
+      <c r="B6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="P6" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="R6" s="21" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="R6" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="T6" s="28" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="7" spans="2:18">
-      <c r="B7" s="10"/>
-      <c r="C7" s="8">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8">
+    <row r="7" ht="16.8" spans="2:20">
+      <c r="B7" s="8"/>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
         <v>-1</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="11">
         <v>0</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="11">
         <v>6</v>
       </c>
-      <c r="G7" s="9">
-        <v>1</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>45</v>
+      <c r="G7" s="11">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J7" s="16">
         <v>0</v>
       </c>
-      <c r="K7" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" s="22">
-        <v>1</v>
-      </c>
-      <c r="M7" s="22">
-        <v>1</v>
-      </c>
-      <c r="N7" s="22">
-        <v>1</v>
-      </c>
-      <c r="O7" s="23" t="str">
+      <c r="K7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="21">
+        <v>1</v>
+      </c>
+      <c r="M7" s="21">
+        <v>1</v>
+      </c>
+      <c r="N7" s="21">
+        <v>1</v>
+      </c>
+      <c r="O7" s="24" t="str">
         <f>L7&amp;","&amp;M7&amp;","&amp;N7</f>
         <v>1,1,1</v>
       </c>
-      <c r="P7" s="24">
+      <c r="P7" s="25">
         <v>2000</v>
       </c>
-      <c r="Q7" s="24">
+      <c r="Q7" s="25">
         <v>2030</v>
       </c>
-      <c r="R7" s="22">
+      <c r="R7" s="21">
         <v>9</v>
       </c>
+      <c r="S7" s="29">
+        <v>1</v>
+      </c>
+      <c r="T7" s="29">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="2:18">
-      <c r="B8" s="10"/>
-      <c r="C8" s="8">
-        <v>2</v>
-      </c>
-      <c r="D8" s="8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9">
+    <row r="8" ht="16.8" spans="2:20">
+      <c r="B8" s="8"/>
+      <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11">
         <v>0</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="11">
         <v>6</v>
       </c>
-      <c r="G8" s="9">
-        <v>1</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>48</v>
+      <c r="G8" s="11">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J8" s="16">
         <v>0</v>
       </c>
-      <c r="K8" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" s="25">
-        <v>2</v>
-      </c>
-      <c r="M8" s="25">
-        <v>2</v>
-      </c>
-      <c r="N8" s="25">
-        <v>2</v>
-      </c>
-      <c r="O8" s="25" t="str">
+      <c r="K8" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="22">
+        <v>2</v>
+      </c>
+      <c r="M8" s="22">
+        <v>2</v>
+      </c>
+      <c r="N8" s="22">
+        <v>2</v>
+      </c>
+      <c r="O8" s="22" t="str">
         <f>L8&amp;","&amp;M8&amp;","&amp;N8</f>
         <v>2,2,2</v>
       </c>
-      <c r="P8" s="24">
+      <c r="P8" s="25">
         <v>2001</v>
       </c>
-      <c r="Q8" s="24">
+      <c r="Q8" s="25">
         <v>2031</v>
       </c>
-      <c r="R8" s="25">
+      <c r="R8" s="22">
         <v>9</v>
       </c>
+      <c r="S8" s="30">
+        <v>1</v>
+      </c>
+      <c r="T8" s="30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="3:18">
-      <c r="C9" s="8">
+    <row r="9" ht="16.8" spans="3:20">
+      <c r="C9" s="7">
         <v>3</v>
       </c>
-      <c r="D9" s="8">
-        <v>2</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="D9" s="7">
+        <v>2</v>
+      </c>
+      <c r="E9" s="11">
         <v>0</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="11">
         <v>0</v>
       </c>
       <c r="G9" s="13">
         <v>1</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>51</v>
+      <c r="H9" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J9" s="13">
         <v>2</v>
       </c>
-      <c r="K9" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" s="25">
-        <v>2</v>
-      </c>
-      <c r="M9" s="25">
-        <v>2</v>
-      </c>
-      <c r="N9" s="25">
-        <v>2</v>
-      </c>
-      <c r="O9" s="23" t="str">
+      <c r="K9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="22">
+        <v>2</v>
+      </c>
+      <c r="M9" s="22">
+        <v>2</v>
+      </c>
+      <c r="N9" s="22">
+        <v>2</v>
+      </c>
+      <c r="O9" s="24" t="str">
         <f t="shared" ref="O9:O24" si="0">L9&amp;","&amp;M9&amp;","&amp;N9</f>
         <v>2,2,2</v>
       </c>
-      <c r="P9" s="24">
+      <c r="P9" s="25">
         <v>2002</v>
       </c>
-      <c r="Q9" s="24">
+      <c r="Q9" s="25">
         <v>2032</v>
       </c>
-      <c r="R9" s="22">
+      <c r="R9" s="21">
         <v>9</v>
       </c>
+      <c r="S9" s="29">
+        <v>1</v>
+      </c>
+      <c r="T9" s="29">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="3:18">
-      <c r="C10" s="8">
+    <row r="10" ht="16.8" spans="3:20">
+      <c r="C10" s="7">
         <v>4</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>3</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="11">
         <v>0</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="11">
         <v>6</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>54</v>
+      <c r="H10" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J10" s="16">
         <v>0</v>
       </c>
-      <c r="K10" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="L10" s="25">
-        <v>2</v>
-      </c>
-      <c r="M10" s="25">
-        <v>2</v>
-      </c>
-      <c r="N10" s="25">
-        <v>2</v>
-      </c>
-      <c r="O10" s="25" t="str">
+      <c r="K10" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="22">
+        <v>2</v>
+      </c>
+      <c r="M10" s="22">
+        <v>2</v>
+      </c>
+      <c r="N10" s="22">
+        <v>2</v>
+      </c>
+      <c r="O10" s="22" t="str">
         <f t="shared" si="0"/>
         <v>2,2,2</v>
       </c>
-      <c r="P10" s="24">
+      <c r="P10" s="25">
         <v>2003</v>
       </c>
-      <c r="Q10" s="24">
+      <c r="Q10" s="25">
         <v>2033</v>
       </c>
-      <c r="R10" s="25">
+      <c r="R10" s="22">
         <v>9</v>
       </c>
+      <c r="S10" s="30">
+        <v>1</v>
+      </c>
+      <c r="T10" s="30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="3:18">
-      <c r="C11" s="8">
+    <row r="11" ht="16.8" spans="3:20">
+      <c r="C11" s="7">
         <v>5</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>4</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="11">
         <v>0</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="11">
         <v>6</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>57</v>
+      <c r="H11" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J11" s="16">
         <v>0</v>
       </c>
-      <c r="K11" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L11" s="25">
-        <v>2</v>
-      </c>
-      <c r="M11" s="25">
-        <v>2</v>
-      </c>
-      <c r="N11" s="25">
-        <v>2</v>
-      </c>
-      <c r="O11" s="23" t="str">
+      <c r="K11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" s="22">
+        <v>2</v>
+      </c>
+      <c r="M11" s="22">
+        <v>2</v>
+      </c>
+      <c r="N11" s="22">
+        <v>2</v>
+      </c>
+      <c r="O11" s="24" t="str">
         <f t="shared" si="0"/>
         <v>2,2,2</v>
       </c>
-      <c r="P11" s="24">
+      <c r="P11" s="25">
         <v>2004</v>
       </c>
-      <c r="Q11" s="24">
+      <c r="Q11" s="25">
         <v>2034</v>
       </c>
-      <c r="R11" s="22">
+      <c r="R11" s="21">
         <v>9</v>
       </c>
+      <c r="S11" s="29">
+        <v>1</v>
+      </c>
+      <c r="T11" s="29">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="3:18">
-      <c r="C12" s="8">
+    <row r="12" ht="16.8" spans="3:20">
+      <c r="C12" s="7">
         <v>6</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>5</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="11">
         <v>0</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="11">
         <v>0</v>
       </c>
       <c r="G12" s="1">
         <v>2</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>60</v>
+      <c r="H12" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J12" s="13">
         <v>2</v>
       </c>
-      <c r="K12" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="L12" s="25">
-        <v>2</v>
-      </c>
-      <c r="M12" s="25">
-        <v>2</v>
-      </c>
-      <c r="N12" s="25">
-        <v>2</v>
-      </c>
-      <c r="O12" s="25" t="str">
+      <c r="K12" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" s="22">
+        <v>2</v>
+      </c>
+      <c r="M12" s="22">
+        <v>2</v>
+      </c>
+      <c r="N12" s="22">
+        <v>2</v>
+      </c>
+      <c r="O12" s="22" t="str">
         <f t="shared" si="0"/>
         <v>2,2,2</v>
       </c>
-      <c r="P12" s="24">
+      <c r="P12" s="25">
         <v>2005</v>
       </c>
-      <c r="Q12" s="24">
+      <c r="Q12" s="25">
         <v>2035</v>
       </c>
-      <c r="R12" s="25">
+      <c r="R12" s="22">
         <v>9</v>
       </c>
+      <c r="S12" s="30">
+        <v>1</v>
+      </c>
+      <c r="T12" s="30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="3:18">
-      <c r="C13" s="8">
+    <row r="13" ht="16.8" spans="3:20">
+      <c r="C13" s="7">
         <v>7</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>6</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="11">
         <v>0</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="11">
         <v>6</v>
       </c>
       <c r="G13" s="1">
         <v>2</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>63</v>
+      <c r="H13" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J13" s="16">
         <v>0</v>
       </c>
-      <c r="K13" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="L13" s="25">
-        <v>2</v>
-      </c>
-      <c r="M13" s="25">
-        <v>2</v>
-      </c>
-      <c r="N13" s="25">
-        <v>2</v>
-      </c>
-      <c r="O13" s="23" t="str">
+      <c r="K13" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="22">
+        <v>2</v>
+      </c>
+      <c r="M13" s="22">
+        <v>2</v>
+      </c>
+      <c r="N13" s="22">
+        <v>2</v>
+      </c>
+      <c r="O13" s="24" t="str">
         <f t="shared" si="0"/>
         <v>2,2,2</v>
       </c>
-      <c r="P13" s="24">
+      <c r="P13" s="25">
         <v>2006</v>
       </c>
-      <c r="Q13" s="24">
+      <c r="Q13" s="25">
         <v>2036</v>
       </c>
-      <c r="R13" s="22">
+      <c r="R13" s="21">
         <v>9</v>
       </c>
+      <c r="S13" s="29">
+        <v>1</v>
+      </c>
+      <c r="T13" s="29">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="3:18">
-      <c r="C14" s="8">
+    <row r="14" ht="16.8" spans="3:20">
+      <c r="C14" s="7">
         <v>8</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>7</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="11">
         <v>0</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="11">
         <v>6</v>
       </c>
       <c r="G14" s="1">
         <v>2</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>66</v>
+      <c r="H14" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J14" s="16">
         <v>0</v>
       </c>
-      <c r="K14" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L14" s="25">
-        <v>2</v>
-      </c>
-      <c r="M14" s="25">
-        <v>2</v>
-      </c>
-      <c r="N14" s="25">
-        <v>2</v>
-      </c>
-      <c r="O14" s="25" t="str">
+      <c r="K14" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" s="22">
+        <v>2</v>
+      </c>
+      <c r="M14" s="22">
+        <v>2</v>
+      </c>
+      <c r="N14" s="22">
+        <v>2</v>
+      </c>
+      <c r="O14" s="22" t="str">
         <f t="shared" si="0"/>
         <v>2,2,2</v>
       </c>
-      <c r="P14" s="24">
+      <c r="P14" s="25">
         <v>2010</v>
       </c>
-      <c r="Q14" s="24">
+      <c r="Q14" s="25">
         <v>2040</v>
       </c>
-      <c r="R14" s="25">
+      <c r="R14" s="22">
         <v>9</v>
       </c>
+      <c r="S14" s="30">
+        <v>1</v>
+      </c>
+      <c r="T14" s="30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="3:18">
-      <c r="C15" s="8">
+    <row r="15" ht="16.8" spans="3:20">
+      <c r="C15" s="7">
         <v>9</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>8</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="11">
         <v>0</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="11">
         <v>0</v>
       </c>
       <c r="G15" s="1">
         <v>2</v>
       </c>
-      <c r="H15" s="9" t="s">
-        <v>69</v>
+      <c r="H15" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J15" s="13">
         <v>2</v>
       </c>
-      <c r="K15" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="L15" s="25">
-        <v>2</v>
-      </c>
-      <c r="M15" s="25">
-        <v>2</v>
-      </c>
-      <c r="N15" s="25">
-        <v>2</v>
-      </c>
-      <c r="O15" s="23" t="str">
+      <c r="K15" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="L15" s="22">
+        <v>2</v>
+      </c>
+      <c r="M15" s="22">
+        <v>2</v>
+      </c>
+      <c r="N15" s="22">
+        <v>2</v>
+      </c>
+      <c r="O15" s="24" t="str">
         <f t="shared" si="0"/>
         <v>2,2,2</v>
       </c>
-      <c r="P15" s="24">
+      <c r="P15" s="25">
         <v>2011</v>
       </c>
-      <c r="Q15" s="24">
+      <c r="Q15" s="25">
         <v>2041</v>
       </c>
-      <c r="R15" s="22">
+      <c r="R15" s="21">
         <v>9</v>
       </c>
+      <c r="S15" s="29">
+        <v>1</v>
+      </c>
+      <c r="T15" s="29">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="3:18">
-      <c r="C16" s="8">
+    <row r="16" ht="16.8" spans="3:20">
+      <c r="C16" s="7">
         <v>10</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>9</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="11">
         <v>0</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="11">
         <v>6</v>
       </c>
       <c r="G16" s="1">
         <v>3</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>72</v>
+      <c r="H16" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J16" s="16">
         <v>0</v>
       </c>
-      <c r="K16" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="L16" s="25">
-        <v>2</v>
-      </c>
-      <c r="M16" s="25">
-        <v>2</v>
-      </c>
-      <c r="N16" s="25">
-        <v>2</v>
-      </c>
-      <c r="O16" s="25" t="str">
+      <c r="K16" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16" s="22">
+        <v>2</v>
+      </c>
+      <c r="M16" s="22">
+        <v>2</v>
+      </c>
+      <c r="N16" s="22">
+        <v>2</v>
+      </c>
+      <c r="O16" s="22" t="str">
         <f t="shared" si="0"/>
         <v>2,2,2</v>
       </c>
-      <c r="P16" s="24">
+      <c r="P16" s="25">
         <v>2012</v>
       </c>
-      <c r="Q16" s="24">
+      <c r="Q16" s="25">
         <v>2042</v>
       </c>
-      <c r="R16" s="25">
+      <c r="R16" s="22">
         <v>9</v>
       </c>
+      <c r="S16" s="30">
+        <v>1</v>
+      </c>
+      <c r="T16" s="30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="3:18">
-      <c r="C17" s="8">
+    <row r="17" ht="16.8" spans="3:20">
+      <c r="C17" s="7">
         <v>11</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>10</v>
       </c>
-      <c r="E17" s="9">
-        <v>1</v>
-      </c>
-      <c r="F17" s="9">
+      <c r="E17" s="11">
+        <v>1</v>
+      </c>
+      <c r="F17" s="11">
         <v>6</v>
       </c>
       <c r="G17" s="1">
         <v>3</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>75</v>
+      <c r="H17" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J17" s="16">
         <v>0</v>
       </c>
-      <c r="K17" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="L17" s="25">
-        <v>2</v>
-      </c>
-      <c r="M17" s="25">
-        <v>2</v>
-      </c>
-      <c r="N17" s="25">
-        <v>2</v>
-      </c>
-      <c r="O17" s="23" t="str">
+      <c r="K17" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" s="22">
+        <v>2</v>
+      </c>
+      <c r="M17" s="22">
+        <v>2</v>
+      </c>
+      <c r="N17" s="22">
+        <v>2</v>
+      </c>
+      <c r="O17" s="24" t="str">
         <f t="shared" si="0"/>
         <v>2,2,2</v>
       </c>
-      <c r="P17" s="24">
+      <c r="P17" s="25">
         <v>2013</v>
       </c>
-      <c r="Q17" s="24">
+      <c r="Q17" s="25">
         <v>2043</v>
       </c>
-      <c r="R17" s="22">
+      <c r="R17" s="21">
         <v>9</v>
       </c>
+      <c r="S17" s="29">
+        <v>1</v>
+      </c>
+      <c r="T17" s="29">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="3:18">
-      <c r="C18" s="8">
+    <row r="18" ht="16.8" spans="3:20">
+      <c r="C18" s="7">
         <v>12</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>11</v>
       </c>
-      <c r="E18" s="9">
-        <v>1</v>
-      </c>
-      <c r="F18" s="9">
+      <c r="E18" s="11">
+        <v>1</v>
+      </c>
+      <c r="F18" s="11">
         <v>6</v>
       </c>
       <c r="G18" s="1">
         <v>3</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>78</v>
+      <c r="H18" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J18" s="13">
         <v>0</v>
       </c>
-      <c r="K18" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="L18" s="25">
-        <v>2</v>
-      </c>
-      <c r="M18" s="25">
-        <v>2</v>
-      </c>
-      <c r="N18" s="25">
-        <v>2</v>
-      </c>
-      <c r="O18" s="25" t="str">
+      <c r="K18" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="L18" s="22">
+        <v>2</v>
+      </c>
+      <c r="M18" s="22">
+        <v>2</v>
+      </c>
+      <c r="N18" s="22">
+        <v>2</v>
+      </c>
+      <c r="O18" s="22" t="str">
         <f t="shared" si="0"/>
         <v>2,2,2</v>
       </c>
-      <c r="P18" s="24">
+      <c r="P18" s="25">
         <v>2014</v>
       </c>
-      <c r="Q18" s="24">
+      <c r="Q18" s="25">
         <v>2044</v>
       </c>
-      <c r="R18" s="25">
+      <c r="R18" s="22">
         <v>9</v>
       </c>
+      <c r="S18" s="30">
+        <v>1</v>
+      </c>
+      <c r="T18" s="30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="3:18">
-      <c r="C19" s="8">
+    <row r="19" ht="16.8" spans="3:20">
+      <c r="C19" s="7">
         <v>13</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>12</v>
       </c>
-      <c r="E19" s="9">
-        <v>1</v>
-      </c>
-      <c r="F19" s="9">
+      <c r="E19" s="11">
+        <v>1</v>
+      </c>
+      <c r="F19" s="11">
         <v>6</v>
       </c>
       <c r="G19" s="1">
         <v>3</v>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>81</v>
+      <c r="H19" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J19" s="16">
         <v>0</v>
       </c>
-      <c r="K19" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="L19" s="25">
-        <v>2</v>
-      </c>
-      <c r="M19" s="25">
-        <v>2</v>
-      </c>
-      <c r="N19" s="25">
-        <v>2</v>
-      </c>
-      <c r="O19" s="23" t="str">
+      <c r="K19" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L19" s="22">
+        <v>2</v>
+      </c>
+      <c r="M19" s="22">
+        <v>2</v>
+      </c>
+      <c r="N19" s="22">
+        <v>2</v>
+      </c>
+      <c r="O19" s="24" t="str">
         <f t="shared" si="0"/>
         <v>2,2,2</v>
       </c>
-      <c r="P19" s="24">
+      <c r="P19" s="25">
         <v>2015</v>
       </c>
-      <c r="Q19" s="24">
+      <c r="Q19" s="25">
         <v>2045</v>
       </c>
-      <c r="R19" s="22">
+      <c r="R19" s="21">
         <v>9</v>
       </c>
+      <c r="S19" s="29">
+        <v>1</v>
+      </c>
+      <c r="T19" s="29">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="3:18">
-      <c r="C20" s="8">
+    <row r="20" ht="16.8" spans="3:20">
+      <c r="C20" s="7">
         <v>14</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>13</v>
       </c>
-      <c r="E20" s="9">
-        <v>1</v>
-      </c>
-      <c r="F20" s="9">
+      <c r="E20" s="11">
+        <v>1</v>
+      </c>
+      <c r="F20" s="11">
         <v>6</v>
       </c>
       <c r="G20" s="1">
         <v>3</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>84</v>
+      <c r="H20" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="J20" s="16">
         <v>0</v>
       </c>
-      <c r="K20" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="L20" s="25">
-        <v>2</v>
-      </c>
-      <c r="M20" s="25">
-        <v>2</v>
-      </c>
-      <c r="N20" s="25">
-        <v>2</v>
-      </c>
-      <c r="O20" s="25" t="str">
+      <c r="K20" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L20" s="22">
+        <v>2</v>
+      </c>
+      <c r="M20" s="22">
+        <v>2</v>
+      </c>
+      <c r="N20" s="22">
+        <v>2</v>
+      </c>
+      <c r="O20" s="22" t="str">
         <f t="shared" si="0"/>
         <v>2,2,2</v>
       </c>
-      <c r="P20" s="24">
+      <c r="P20" s="25">
         <v>2016</v>
       </c>
-      <c r="Q20" s="24">
+      <c r="Q20" s="25">
         <v>2046</v>
       </c>
-      <c r="R20" s="25">
+      <c r="R20" s="22">
         <v>9</v>
       </c>
+      <c r="S20" s="30">
+        <v>1</v>
+      </c>
+      <c r="T20" s="30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="3:18">
-      <c r="C21" s="8">
+    <row r="21" ht="16.8" spans="3:20">
+      <c r="C21" s="7">
         <v>15</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>14</v>
       </c>
-      <c r="E21" s="9">
-        <v>1</v>
-      </c>
-      <c r="F21" s="9">
+      <c r="E21" s="11">
+        <v>1</v>
+      </c>
+      <c r="F21" s="11">
         <v>6</v>
       </c>
       <c r="G21" s="1">
         <v>3</v>
       </c>
-      <c r="H21" s="9" t="s">
-        <v>87</v>
+      <c r="H21" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J21" s="13">
         <v>0</v>
       </c>
-      <c r="K21" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="L21" s="25">
-        <v>2</v>
-      </c>
-      <c r="M21" s="25">
-        <v>2</v>
-      </c>
-      <c r="N21" s="25">
-        <v>2</v>
-      </c>
-      <c r="O21" s="23" t="str">
+      <c r="K21" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="L21" s="22">
+        <v>2</v>
+      </c>
+      <c r="M21" s="22">
+        <v>2</v>
+      </c>
+      <c r="N21" s="22">
+        <v>2</v>
+      </c>
+      <c r="O21" s="24" t="str">
         <f t="shared" si="0"/>
         <v>2,2,2</v>
       </c>
       <c r="P21" s="1">
         <v>2020</v>
       </c>
-      <c r="Q21" s="26">
+      <c r="Q21" s="31">
         <v>2050</v>
       </c>
-      <c r="R21" s="22">
+      <c r="R21" s="21">
         <v>9</v>
       </c>
+      <c r="S21" s="29">
+        <v>1</v>
+      </c>
+      <c r="T21" s="29">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="3:18">
-      <c r="C22" s="8">
+    <row r="22" ht="16.8" spans="3:20">
+      <c r="C22" s="7">
         <v>16</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>15</v>
       </c>
-      <c r="E22" s="9">
-        <v>1</v>
-      </c>
-      <c r="F22" s="9">
+      <c r="E22" s="11">
+        <v>1</v>
+      </c>
+      <c r="F22" s="11">
         <v>12</v>
       </c>
       <c r="G22" s="1">
         <v>3</v>
       </c>
-      <c r="H22" s="9" t="s">
-        <v>90</v>
+      <c r="H22" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="J22" s="1">
         <v>1</v>
       </c>
-      <c r="K22" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="L22" s="25">
-        <v>2</v>
-      </c>
-      <c r="M22" s="25">
-        <v>2</v>
-      </c>
-      <c r="N22" s="25">
-        <v>2</v>
-      </c>
-      <c r="O22" s="25" t="str">
+      <c r="K22" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="L22" s="22">
+        <v>2</v>
+      </c>
+      <c r="M22" s="22">
+        <v>2</v>
+      </c>
+      <c r="N22" s="22">
+        <v>2</v>
+      </c>
+      <c r="O22" s="22" t="str">
         <f t="shared" si="0"/>
         <v>2,2,2</v>
       </c>
       <c r="P22" s="1">
         <v>2021</v>
       </c>
-      <c r="Q22" s="27">
+      <c r="Q22" s="32">
         <v>2051</v>
       </c>
-      <c r="R22" s="25">
+      <c r="R22" s="22">
         <v>3</v>
       </c>
+      <c r="S22" s="30">
+        <v>1</v>
+      </c>
+      <c r="T22" s="30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="3:18">
-      <c r="C23" s="8">
+    <row r="23" ht="16.8" spans="3:20">
+      <c r="C23" s="7">
         <v>17</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>16</v>
       </c>
-      <c r="E23" s="9">
-        <v>1</v>
-      </c>
-      <c r="F23" s="9">
+      <c r="E23" s="11">
+        <v>1</v>
+      </c>
+      <c r="F23" s="11">
         <v>12</v>
       </c>
       <c r="G23" s="1">
         <v>3</v>
       </c>
-      <c r="H23" s="9" t="s">
-        <v>93</v>
+      <c r="H23" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J23" s="1">
         <v>1</v>
       </c>
-      <c r="K23" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="L23" s="25">
-        <v>2</v>
-      </c>
-      <c r="M23" s="25">
-        <v>2</v>
-      </c>
-      <c r="N23" s="25">
-        <v>2</v>
-      </c>
-      <c r="O23" s="23" t="str">
+      <c r="K23" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="L23" s="22">
+        <v>2</v>
+      </c>
+      <c r="M23" s="22">
+        <v>2</v>
+      </c>
+      <c r="N23" s="22">
+        <v>2</v>
+      </c>
+      <c r="O23" s="24" t="str">
         <f t="shared" si="0"/>
         <v>2,2,2</v>
       </c>
       <c r="P23" s="1">
         <v>2022</v>
       </c>
-      <c r="Q23" s="27">
+      <c r="Q23" s="32">
         <v>2052</v>
       </c>
-      <c r="R23" s="22">
+      <c r="R23" s="21">
         <v>3</v>
       </c>
+      <c r="S23" s="29">
+        <v>1</v>
+      </c>
+      <c r="T23" s="29">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="3:18">
-      <c r="C24" s="8">
+    <row r="24" ht="16.8" spans="3:20">
+      <c r="C24" s="7">
         <v>18</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>17</v>
       </c>
-      <c r="E24" s="9">
-        <v>1</v>
-      </c>
-      <c r="F24" s="9">
+      <c r="E24" s="11">
+        <v>1</v>
+      </c>
+      <c r="F24" s="11">
         <v>12</v>
       </c>
       <c r="G24" s="1">
         <v>3</v>
       </c>
-      <c r="H24" s="9" t="s">
-        <v>96</v>
+      <c r="H24" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
       </c>
-      <c r="K24" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="L24" s="25">
-        <v>2</v>
-      </c>
-      <c r="M24" s="25">
-        <v>2</v>
-      </c>
-      <c r="N24" s="25">
-        <v>2</v>
-      </c>
-      <c r="O24" s="25" t="str">
+      <c r="K24" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="L24" s="22">
+        <v>2</v>
+      </c>
+      <c r="M24" s="22">
+        <v>2</v>
+      </c>
+      <c r="N24" s="22">
+        <v>2</v>
+      </c>
+      <c r="O24" s="22" t="str">
         <f t="shared" si="0"/>
         <v>2,2,2</v>
       </c>
       <c r="P24" s="1">
         <v>2023</v>
       </c>
-      <c r="Q24" s="27">
+      <c r="Q24" s="32">
         <v>2053</v>
       </c>
-      <c r="R24" s="25">
+      <c r="R24" s="22">
         <v>3</v>
+      </c>
+      <c r="S24" s="30">
+        <v>1</v>
+      </c>
+      <c r="T24" s="30">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/Stage.xlsx
+++ b/config/excel/Stage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZG\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC2C26C-A696-4A31-A75C-02005968584A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA31F22-4987-4E4F-9206-36F7E6204D05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="110">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -330,209 +330,7 @@
     <t>关卡18描述</t>
   </si>
   <si>
-    <t>单位1生成点</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位2生成点</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位3生成点</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位4生成点</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始COM_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始COM_2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始COM_3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始COM_4</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>己方生成1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>己方生成2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>己方生成3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>己方生成4</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>己方COM1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>己方COM2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>己方COM3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>己方COM4</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]number</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>usPosition1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>usPosition2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>usPosition3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>usPosition4</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>usInitalCom1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>usInitalCom2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>usInitalCom3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>usInitalCom4</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>参战单位1
-生成坐标
-(x,z)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>参战单位2
-生成坐标
-(x,z)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>参战单位3
-生成坐标
-(x,z)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>参战单位4
-生成坐标
-(x,z)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>-5-2</t>
-  </si>
-  <si>
-    <t>-5-2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>-5,2</t>
-  </si>
-  <si>
-    <t>-5,2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>-3,-4</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>-3,4</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>unitGroupId</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>己方生成5</t>
-  </si>
-  <si>
-    <t>己方生成6</t>
-  </si>
-  <si>
-    <t>己方生成7</t>
-  </si>
-  <si>
-    <t>己方生成8</t>
-  </si>
-  <si>
-    <t>rotate1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>rotate2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>rotate3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>rotate4</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位1朝向</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位2朝向</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位3朝向</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位4朝向</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>朝向值</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -806,7 +604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -895,512 +693,17 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <b val="0"/>
@@ -1497,9 +800,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表3" displayName="表3" ref="C1:AH24" totalsRowShown="0">
-  <autoFilter ref="C1:AH24" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表3" displayName="表3" ref="C1:V24" totalsRowShown="0">
+  <autoFilter ref="C1:V24" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="关卡id"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="前置关卡id"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="解锁条件id"/>
@@ -1521,18 +824,6 @@
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="通关掉落id"/>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="每日挑战次数"/>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="场景id"/>
-    <tableColumn id="24" xr3:uid="{A65FD496-C8EA-4F34-935F-27D83FE9C197}" name="己方生成1" dataDxfId="13"/>
-    <tableColumn id="25" xr3:uid="{A8112E9C-832E-4CF7-80E8-35524FDC2956}" name="己方生成2" dataDxfId="12"/>
-    <tableColumn id="26" xr3:uid="{4D87F67A-7252-4FD6-96C0-6D0F37C43446}" name="己方生成3" dataDxfId="11"/>
-    <tableColumn id="27" xr3:uid="{BFA7EF1A-B9BF-4AFF-AB3E-C60DD9F86022}" name="己方生成4" dataDxfId="10"/>
-    <tableColumn id="19" xr3:uid="{5F6C6F32-C565-4037-8801-B3D43AD1A3B0}" name="己方生成5" dataDxfId="9"/>
-    <tableColumn id="20" xr3:uid="{5BDF3D0B-59AC-415F-AC99-C334F26588A9}" name="己方生成6" dataDxfId="8"/>
-    <tableColumn id="21" xr3:uid="{20891E02-7930-4AB0-9AFB-FDD0DF2E833A}" name="己方生成7" dataDxfId="7"/>
-    <tableColumn id="22" xr3:uid="{0BFB537F-8899-4794-8CE0-526F60F07917}" name="己方生成8" dataDxfId="6"/>
-    <tableColumn id="29" xr3:uid="{BAFBF608-81E0-488D-B48B-9108A2DE24F1}" name="己方COM1" dataDxfId="5"/>
-    <tableColumn id="30" xr3:uid="{4FF616CA-D0BD-42CE-9CE3-818F5B81CA5D}" name="己方COM2" dataDxfId="4"/>
-    <tableColumn id="31" xr3:uid="{49527F35-912A-4244-923F-09BF4DAAE237}" name="己方COM3" dataDxfId="3"/>
-    <tableColumn id="32" xr3:uid="{A6B9F29D-5856-43CB-8DBF-E55627FFEED9}" name="己方COM4" dataDxfId="2"/>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="怪物组id"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1797,13 +1088,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH24"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="10" ySplit="6" topLeftCell="K7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomRight" activeCell="N7" sqref="N7:P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1822,13 +1113,11 @@
     <col min="18" max="19" width="15.75" style="1" customWidth="1"/>
     <col min="20" max="20" width="14" style="1" customWidth="1"/>
     <col min="21" max="21" width="7.375" style="1" customWidth="1"/>
-    <col min="22" max="25" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="33" width="12.125" style="1" customWidth="1"/>
-    <col min="34" max="34" width="10.625" style="1" customWidth="1"/>
-    <col min="35" max="16384" width="9" style="1"/>
+    <col min="22" max="22" width="10.625" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:22">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1862,11 +1151,11 @@
       <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="M1" s="32" t="s">
-        <v>154</v>
+      <c r="L1" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>104</v>
       </c>
       <c r="N1" s="14" t="s">
         <v>11</v>
@@ -1893,46 +1182,10 @@
         <v>18</v>
       </c>
       <c r="V1" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="W1" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="X1" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y1" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z1" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA1" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB1" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC1" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD1" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE1" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF1" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG1" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="AH1" s="24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="42.75">
+    <row r="2" spans="1:22" ht="42.75">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>20</v>
@@ -1960,31 +1213,9 @@
       <c r="S2" s="17"/>
       <c r="T2" s="17"/>
       <c r="U2" s="25"/>
-      <c r="V2" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="W2" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="X2" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y2" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z2" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="25"/>
+      <c r="V2" s="25"/>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:22">
       <c r="B3" s="8" t="s">
         <v>23</v>
       </c>
@@ -2016,10 +1247,10 @@
         <v>32</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="M3" s="29" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="N3" s="19"/>
       <c r="O3" s="19"/>
@@ -2036,50 +1267,14 @@
       <c r="T3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="26" t="s">
+      <c r="U3" s="31" t="s">
         <v>37</v>
       </c>
       <c r="V3" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="W3" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="X3" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y3" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z3" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA3" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB3" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC3" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD3" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE3" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF3" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG3" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH3" s="29" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:22">
       <c r="B4" s="8" t="s">
         <v>38</v>
       </c>
@@ -2111,10 +1306,10 @@
         <v>10</v>
       </c>
       <c r="L4" s="29" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="M4" s="29" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="N4" s="19"/>
       <c r="O4" s="19"/>
@@ -2131,50 +1326,14 @@
       <c r="T4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="U4" s="26" t="s">
+      <c r="U4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="V4" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="W4" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="X4" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y4" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z4" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA4" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB4" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC4" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="AD4" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE4" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF4" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG4" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH4" s="26" t="s">
+      <c r="V4" s="26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:22">
       <c r="B5" s="8" t="s">
         <v>42</v>
       </c>
@@ -2202,22 +1361,10 @@
       <c r="R5" s="19"/>
       <c r="S5" s="19"/>
       <c r="T5" s="19"/>
-      <c r="U5" s="26"/>
+      <c r="U5" s="31"/>
       <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="26"/>
-      <c r="AE5" s="26"/>
-      <c r="AF5" s="26"/>
-      <c r="AG5" s="26"/>
-      <c r="AH5" s="26"/>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:22">
       <c r="B6" s="8" t="s">
         <v>44</v>
       </c>
@@ -2249,10 +1396,10 @@
         <v>46</v>
       </c>
       <c r="L6" s="29" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="M6" s="29" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
@@ -2269,50 +1416,14 @@
       <c r="T6" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="U6" s="26" t="s">
+      <c r="U6" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="V6" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="W6" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="X6" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y6" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z6" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA6" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB6" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC6" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD6" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE6" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF6" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG6" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH6" s="26" t="s">
+      <c r="V6" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:22">
       <c r="B7" s="8"/>
       <c r="C7" s="7">
         <v>1</v>
@@ -2347,14 +1458,14 @@
         <v>1</v>
       </c>
       <c r="O7" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" s="23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q7" s="23" t="str">
         <f>N7&amp;","&amp;O7&amp;","&amp;P7</f>
-        <v>1,1,1</v>
+        <v>1,2,3</v>
       </c>
       <c r="R7" s="27">
         <v>2000</v>
@@ -2368,39 +1479,11 @@
       <c r="U7" s="27">
         <v>1</v>
       </c>
-      <c r="V7" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="W7" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="X7" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y7" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="31"/>
-      <c r="AC7" s="31"/>
-      <c r="AD7" s="27">
-        <v>0.875</v>
-      </c>
-      <c r="AE7" s="27">
-        <v>62.5</v>
-      </c>
-      <c r="AF7" s="27">
-        <v>37.5</v>
-      </c>
-      <c r="AG7" s="27">
-        <v>12.5</v>
-      </c>
-      <c r="AH7" s="27">
+      <c r="V7" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:22">
       <c r="B8" s="8"/>
       <c r="C8" s="7">
         <v>2</v>
@@ -2431,18 +1514,18 @@
       </c>
       <c r="L8" s="28"/>
       <c r="M8" s="28"/>
-      <c r="N8" s="28">
-        <v>2</v>
-      </c>
-      <c r="O8" s="28">
-        <v>2</v>
-      </c>
-      <c r="P8" s="28">
-        <v>2</v>
+      <c r="N8" s="23">
+        <v>1</v>
+      </c>
+      <c r="O8" s="23">
+        <v>2</v>
+      </c>
+      <c r="P8" s="23">
+        <v>3</v>
       </c>
       <c r="Q8" s="21" t="str">
         <f>N8&amp;","&amp;O8&amp;","&amp;P8</f>
-        <v>2,2,2</v>
+        <v>1,2,3</v>
       </c>
       <c r="R8" s="28">
         <v>2001</v>
@@ -2456,39 +1539,11 @@
       <c r="U8" s="28">
         <v>1</v>
       </c>
-      <c r="V8" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="W8" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="X8" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y8" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="27">
-        <v>0.875</v>
-      </c>
-      <c r="AE8" s="27">
-        <v>62.5</v>
-      </c>
-      <c r="AF8" s="27">
-        <v>37.5</v>
-      </c>
-      <c r="AG8" s="27">
-        <v>12.5</v>
-      </c>
-      <c r="AH8" s="28">
+      <c r="V8" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:22">
       <c r="C9" s="7">
         <v>3</v>
       </c>
@@ -2519,17 +1574,17 @@
       <c r="L9" s="23"/>
       <c r="M9" s="23"/>
       <c r="N9" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O9" s="23">
         <v>2</v>
       </c>
       <c r="P9" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q9" s="23" t="str">
         <f t="shared" ref="Q9:Q24" si="0">N9&amp;","&amp;O9&amp;","&amp;P9</f>
-        <v>2,2,2</v>
+        <v>1,2,3</v>
       </c>
       <c r="R9" s="27">
         <v>2002</v>
@@ -2543,39 +1598,11 @@
       <c r="U9" s="27">
         <v>1</v>
       </c>
-      <c r="V9" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="W9" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="X9" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y9" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="27">
-        <v>0.875</v>
-      </c>
-      <c r="AE9" s="27">
-        <v>62.5</v>
-      </c>
-      <c r="AF9" s="27">
-        <v>37.5</v>
-      </c>
-      <c r="AG9" s="27">
-        <v>12.5</v>
-      </c>
-      <c r="AH9" s="27">
+      <c r="V9" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:22">
       <c r="C10" s="7">
         <v>4</v>
       </c>
@@ -2589,7 +1616,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>57</v>
@@ -2605,18 +1632,18 @@
       </c>
       <c r="L10" s="28"/>
       <c r="M10" s="28"/>
-      <c r="N10" s="28">
-        <v>2</v>
-      </c>
-      <c r="O10" s="28">
-        <v>2</v>
-      </c>
-      <c r="P10" s="28">
-        <v>2</v>
+      <c r="N10" s="23">
+        <v>1</v>
+      </c>
+      <c r="O10" s="23">
+        <v>2</v>
+      </c>
+      <c r="P10" s="23">
+        <v>3</v>
       </c>
       <c r="Q10" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>2,2,2</v>
+        <v>1,2,3</v>
       </c>
       <c r="R10" s="28">
         <v>2003</v>
@@ -2630,39 +1657,11 @@
       <c r="U10" s="28">
         <v>1</v>
       </c>
-      <c r="V10" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="W10" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="X10" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y10" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="28"/>
-      <c r="AC10" s="28"/>
-      <c r="AD10" s="27">
-        <v>0.875</v>
-      </c>
-      <c r="AE10" s="27">
-        <v>62.5</v>
-      </c>
-      <c r="AF10" s="27">
-        <v>37.5</v>
-      </c>
-      <c r="AG10" s="27">
-        <v>12.5</v>
-      </c>
-      <c r="AH10" s="28">
+      <c r="V10" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:22">
       <c r="C11" s="7">
         <v>5</v>
       </c>
@@ -2676,7 +1675,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>60</v>
@@ -2693,17 +1692,17 @@
       <c r="L11" s="23"/>
       <c r="M11" s="23"/>
       <c r="N11" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O11" s="23">
         <v>2</v>
       </c>
       <c r="P11" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q11" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>2,2,2</v>
+        <v>1,2,3</v>
       </c>
       <c r="R11" s="27">
         <v>2004</v>
@@ -2717,39 +1716,11 @@
       <c r="U11" s="27">
         <v>1</v>
       </c>
-      <c r="V11" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="W11" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="X11" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y11" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="27"/>
-      <c r="AC11" s="27"/>
-      <c r="AD11" s="27">
-        <v>0.875</v>
-      </c>
-      <c r="AE11" s="27">
-        <v>62.5</v>
-      </c>
-      <c r="AF11" s="27">
-        <v>37.5</v>
-      </c>
-      <c r="AG11" s="27">
-        <v>12.5</v>
-      </c>
-      <c r="AH11" s="27">
+      <c r="V11" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:22">
       <c r="C12" s="7">
         <v>6</v>
       </c>
@@ -2779,18 +1750,18 @@
       </c>
       <c r="L12" s="28"/>
       <c r="M12" s="28"/>
-      <c r="N12" s="28">
-        <v>2</v>
-      </c>
-      <c r="O12" s="28">
-        <v>2</v>
-      </c>
-      <c r="P12" s="28">
-        <v>2</v>
+      <c r="N12" s="23">
+        <v>1</v>
+      </c>
+      <c r="O12" s="23">
+        <v>2</v>
+      </c>
+      <c r="P12" s="23">
+        <v>3</v>
       </c>
       <c r="Q12" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>2,2,2</v>
+        <v>1,2,3</v>
       </c>
       <c r="R12" s="28">
         <v>2005</v>
@@ -2804,39 +1775,11 @@
       <c r="U12" s="28">
         <v>1</v>
       </c>
-      <c r="V12" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="W12" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="X12" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y12" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="28"/>
-      <c r="AD12" s="27">
-        <v>0.875</v>
-      </c>
-      <c r="AE12" s="27">
-        <v>62.5</v>
-      </c>
-      <c r="AF12" s="27">
-        <v>37.5</v>
-      </c>
-      <c r="AG12" s="27">
-        <v>12.5</v>
-      </c>
-      <c r="AH12" s="28">
+      <c r="V12" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:22">
       <c r="C13" s="7">
         <v>7</v>
       </c>
@@ -2867,17 +1810,17 @@
       <c r="L13" s="23"/>
       <c r="M13" s="23"/>
       <c r="N13" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O13" s="23">
         <v>2</v>
       </c>
       <c r="P13" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q13" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>2,2,2</v>
+        <v>1,2,3</v>
       </c>
       <c r="R13" s="27">
         <v>2006</v>
@@ -2891,39 +1834,11 @@
       <c r="U13" s="27">
         <v>1</v>
       </c>
-      <c r="V13" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="W13" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="X13" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y13" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="27"/>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="27">
-        <v>0.875</v>
-      </c>
-      <c r="AE13" s="27">
-        <v>62.5</v>
-      </c>
-      <c r="AF13" s="27">
-        <v>37.5</v>
-      </c>
-      <c r="AG13" s="27">
-        <v>12.5</v>
-      </c>
-      <c r="AH13" s="27">
+      <c r="V13" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:22">
       <c r="C14" s="7">
         <v>8</v>
       </c>
@@ -2953,18 +1868,18 @@
       </c>
       <c r="L14" s="28"/>
       <c r="M14" s="28"/>
-      <c r="N14" s="28">
-        <v>2</v>
-      </c>
-      <c r="O14" s="28">
-        <v>2</v>
-      </c>
-      <c r="P14" s="28">
-        <v>2</v>
+      <c r="N14" s="23">
+        <v>1</v>
+      </c>
+      <c r="O14" s="23">
+        <v>2</v>
+      </c>
+      <c r="P14" s="23">
+        <v>3</v>
       </c>
       <c r="Q14" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>2,2,2</v>
+        <v>1,2,3</v>
       </c>
       <c r="R14" s="28">
         <v>2010</v>
@@ -2978,39 +1893,11 @@
       <c r="U14" s="28">
         <v>1</v>
       </c>
-      <c r="V14" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="W14" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="X14" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y14" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="27">
-        <v>0.875</v>
-      </c>
-      <c r="AE14" s="27">
-        <v>62.5</v>
-      </c>
-      <c r="AF14" s="27">
-        <v>37.5</v>
-      </c>
-      <c r="AG14" s="27">
-        <v>12.5</v>
-      </c>
-      <c r="AH14" s="28">
+      <c r="V14" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:22">
       <c r="C15" s="7">
         <v>9</v>
       </c>
@@ -3041,17 +1928,17 @@
       <c r="L15" s="23"/>
       <c r="M15" s="23"/>
       <c r="N15" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O15" s="23">
         <v>2</v>
       </c>
       <c r="P15" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q15" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>2,2,2</v>
+        <v>1,2,3</v>
       </c>
       <c r="R15" s="27">
         <v>2011</v>
@@ -3065,39 +1952,11 @@
       <c r="U15" s="27">
         <v>1</v>
       </c>
-      <c r="V15" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="W15" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="X15" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y15" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="27">
-        <v>0.875</v>
-      </c>
-      <c r="AE15" s="27">
-        <v>62.5</v>
-      </c>
-      <c r="AF15" s="27">
-        <v>37.5</v>
-      </c>
-      <c r="AG15" s="27">
-        <v>12.5</v>
-      </c>
-      <c r="AH15" s="27">
+      <c r="V15" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:22">
       <c r="C16" s="7">
         <v>10</v>
       </c>
@@ -3127,18 +1986,18 @@
       </c>
       <c r="L16" s="28"/>
       <c r="M16" s="28"/>
-      <c r="N16" s="28">
-        <v>2</v>
-      </c>
-      <c r="O16" s="28">
-        <v>2</v>
-      </c>
-      <c r="P16" s="28">
-        <v>2</v>
+      <c r="N16" s="23">
+        <v>1</v>
+      </c>
+      <c r="O16" s="23">
+        <v>2</v>
+      </c>
+      <c r="P16" s="23">
+        <v>3</v>
       </c>
       <c r="Q16" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>2,2,2</v>
+        <v>1,2,3</v>
       </c>
       <c r="R16" s="28">
         <v>2012</v>
@@ -3152,39 +2011,11 @@
       <c r="U16" s="28">
         <v>1</v>
       </c>
-      <c r="V16" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="W16" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="X16" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y16" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="28"/>
-      <c r="AD16" s="27">
-        <v>0.875</v>
-      </c>
-      <c r="AE16" s="27">
-        <v>62.5</v>
-      </c>
-      <c r="AF16" s="27">
-        <v>37.5</v>
-      </c>
-      <c r="AG16" s="27">
-        <v>12.5</v>
-      </c>
-      <c r="AH16" s="28">
+      <c r="V16" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:34">
+    <row r="17" spans="3:22">
       <c r="C17" s="7">
         <v>11</v>
       </c>
@@ -3215,17 +2046,17 @@
       <c r="L17" s="23"/>
       <c r="M17" s="23"/>
       <c r="N17" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O17" s="23">
         <v>2</v>
       </c>
       <c r="P17" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q17" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>2,2,2</v>
+        <v>1,2,3</v>
       </c>
       <c r="R17" s="27">
         <v>2013</v>
@@ -3239,39 +2070,11 @@
       <c r="U17" s="27">
         <v>1</v>
       </c>
-      <c r="V17" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="W17" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="X17" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y17" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="27">
-        <v>0.875</v>
-      </c>
-      <c r="AE17" s="27">
-        <v>62.5</v>
-      </c>
-      <c r="AF17" s="27">
-        <v>37.5</v>
-      </c>
-      <c r="AG17" s="27">
-        <v>12.5</v>
-      </c>
-      <c r="AH17" s="27">
+      <c r="V17" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:34">
+    <row r="18" spans="3:22">
       <c r="C18" s="7">
         <v>12</v>
       </c>
@@ -3301,18 +2104,18 @@
       </c>
       <c r="L18" s="28"/>
       <c r="M18" s="28"/>
-      <c r="N18" s="28">
-        <v>2</v>
-      </c>
-      <c r="O18" s="28">
-        <v>2</v>
-      </c>
-      <c r="P18" s="28">
-        <v>2</v>
+      <c r="N18" s="23">
+        <v>1</v>
+      </c>
+      <c r="O18" s="23">
+        <v>2</v>
+      </c>
+      <c r="P18" s="23">
+        <v>3</v>
       </c>
       <c r="Q18" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>2,2,2</v>
+        <v>1,2,3</v>
       </c>
       <c r="R18" s="28">
         <v>2014</v>
@@ -3326,39 +2129,11 @@
       <c r="U18" s="28">
         <v>1</v>
       </c>
-      <c r="V18" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="W18" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="X18" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y18" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="27">
-        <v>0.875</v>
-      </c>
-      <c r="AE18" s="27">
-        <v>62.5</v>
-      </c>
-      <c r="AF18" s="27">
-        <v>37.5</v>
-      </c>
-      <c r="AG18" s="27">
-        <v>12.5</v>
-      </c>
-      <c r="AH18" s="28">
+      <c r="V18" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:34">
+    <row r="19" spans="3:22">
       <c r="C19" s="7">
         <v>13</v>
       </c>
@@ -3389,17 +2164,17 @@
       <c r="L19" s="23"/>
       <c r="M19" s="23"/>
       <c r="N19" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O19" s="23">
         <v>2</v>
       </c>
       <c r="P19" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q19" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>2,2,2</v>
+        <v>1,2,3</v>
       </c>
       <c r="R19" s="27">
         <v>2015</v>
@@ -3413,39 +2188,11 @@
       <c r="U19" s="27">
         <v>1</v>
       </c>
-      <c r="V19" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="W19" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="X19" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y19" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="27"/>
-      <c r="AC19" s="27"/>
-      <c r="AD19" s="27">
-        <v>0.875</v>
-      </c>
-      <c r="AE19" s="27">
-        <v>62.5</v>
-      </c>
-      <c r="AF19" s="27">
-        <v>37.5</v>
-      </c>
-      <c r="AG19" s="27">
-        <v>12.5</v>
-      </c>
-      <c r="AH19" s="27">
+      <c r="V19" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:34">
+    <row r="20" spans="3:22">
       <c r="C20" s="7">
         <v>14</v>
       </c>
@@ -3475,18 +2222,18 @@
       </c>
       <c r="L20" s="28"/>
       <c r="M20" s="28"/>
-      <c r="N20" s="28">
-        <v>2</v>
-      </c>
-      <c r="O20" s="28">
-        <v>2</v>
-      </c>
-      <c r="P20" s="28">
-        <v>2</v>
+      <c r="N20" s="23">
+        <v>1</v>
+      </c>
+      <c r="O20" s="23">
+        <v>2</v>
+      </c>
+      <c r="P20" s="23">
+        <v>3</v>
       </c>
       <c r="Q20" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>2,2,2</v>
+        <v>1,2,3</v>
       </c>
       <c r="R20" s="28">
         <v>2016</v>
@@ -3500,39 +2247,11 @@
       <c r="U20" s="28">
         <v>1</v>
       </c>
-      <c r="V20" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="W20" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="X20" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y20" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="28"/>
-      <c r="AD20" s="28">
-        <v>0.875</v>
-      </c>
-      <c r="AE20" s="28">
-        <v>62.5</v>
-      </c>
-      <c r="AF20" s="28">
-        <v>37.5</v>
-      </c>
-      <c r="AG20" s="28">
-        <v>12.5</v>
-      </c>
-      <c r="AH20" s="28">
+      <c r="V20" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:34">
+    <row r="21" spans="3:22">
       <c r="C21" s="7">
         <v>15</v>
       </c>
@@ -3563,17 +2282,17 @@
       <c r="L21" s="23"/>
       <c r="M21" s="23"/>
       <c r="N21" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O21" s="23">
         <v>2</v>
       </c>
       <c r="P21" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q21" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>2,2,2</v>
+        <v>1,2,3</v>
       </c>
       <c r="R21" s="27">
         <v>2020</v>
@@ -3587,39 +2306,11 @@
       <c r="U21" s="27">
         <v>1</v>
       </c>
-      <c r="V21" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="W21" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="X21" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y21" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="27"/>
-      <c r="AC21" s="27"/>
-      <c r="AD21" s="27">
-        <v>0.875</v>
-      </c>
-      <c r="AE21" s="27">
-        <v>62.5</v>
-      </c>
-      <c r="AF21" s="27">
-        <v>37.5</v>
-      </c>
-      <c r="AG21" s="27">
-        <v>12.5</v>
-      </c>
-      <c r="AH21" s="27">
+      <c r="V21" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:34">
+    <row r="22" spans="3:22">
       <c r="C22" s="7">
         <v>16</v>
       </c>
@@ -3649,18 +2340,18 @@
       </c>
       <c r="L22" s="28"/>
       <c r="M22" s="28"/>
-      <c r="N22" s="28">
-        <v>2</v>
-      </c>
-      <c r="O22" s="28">
-        <v>2</v>
-      </c>
-      <c r="P22" s="28">
-        <v>2</v>
+      <c r="N22" s="23">
+        <v>1</v>
+      </c>
+      <c r="O22" s="23">
+        <v>2</v>
+      </c>
+      <c r="P22" s="23">
+        <v>3</v>
       </c>
       <c r="Q22" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>2,2,2</v>
+        <v>1,2,3</v>
       </c>
       <c r="R22" s="28">
         <v>2021</v>
@@ -3674,39 +2365,11 @@
       <c r="U22" s="28">
         <v>1</v>
       </c>
-      <c r="V22" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="W22" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="X22" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y22" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="28"/>
-      <c r="AC22" s="28"/>
-      <c r="AD22" s="28">
-        <v>0.875</v>
-      </c>
-      <c r="AE22" s="28">
-        <v>62.5</v>
-      </c>
-      <c r="AF22" s="28">
-        <v>37.5</v>
-      </c>
-      <c r="AG22" s="28">
-        <v>12.5</v>
-      </c>
-      <c r="AH22" s="28">
+      <c r="V22" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:34">
+    <row r="23" spans="3:22">
       <c r="C23" s="7">
         <v>17</v>
       </c>
@@ -3737,17 +2400,17 @@
       <c r="L23" s="23"/>
       <c r="M23" s="23"/>
       <c r="N23" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O23" s="23">
         <v>2</v>
       </c>
       <c r="P23" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q23" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>2,2,2</v>
+        <v>1,2,3</v>
       </c>
       <c r="R23" s="27">
         <v>2022</v>
@@ -3761,39 +2424,11 @@
       <c r="U23" s="27">
         <v>1</v>
       </c>
-      <c r="V23" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="W23" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="X23" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y23" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="27"/>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="27">
-        <v>0.875</v>
-      </c>
-      <c r="AE23" s="27">
-        <v>62.5</v>
-      </c>
-      <c r="AF23" s="27">
-        <v>37.5</v>
-      </c>
-      <c r="AG23" s="27">
-        <v>12.5</v>
-      </c>
-      <c r="AH23" s="27">
+      <c r="V23" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:34">
+    <row r="24" spans="3:22">
       <c r="C24" s="7">
         <v>18</v>
       </c>
@@ -3823,18 +2458,18 @@
       </c>
       <c r="L24" s="28"/>
       <c r="M24" s="28"/>
-      <c r="N24" s="28">
-        <v>2</v>
-      </c>
-      <c r="O24" s="28">
-        <v>2</v>
-      </c>
-      <c r="P24" s="28">
-        <v>2</v>
+      <c r="N24" s="23">
+        <v>1</v>
+      </c>
+      <c r="O24" s="23">
+        <v>2</v>
+      </c>
+      <c r="P24" s="23">
+        <v>3</v>
       </c>
       <c r="Q24" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>2,2,2</v>
+        <v>1,2,3</v>
       </c>
       <c r="R24" s="28">
         <v>2023</v>
@@ -3848,35 +2483,7 @@
       <c r="U24" s="28">
         <v>1</v>
       </c>
-      <c r="V24" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="W24" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="X24" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y24" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="28">
-        <v>0.875</v>
-      </c>
-      <c r="AE24" s="28">
-        <v>62.5</v>
-      </c>
-      <c r="AF24" s="28">
-        <v>37.5</v>
-      </c>
-      <c r="AG24" s="28">
-        <v>12.5</v>
-      </c>
-      <c r="AH24" s="28">
+      <c r="V24" s="28">
         <v>1</v>
       </c>
     </row>

--- a/config/excel/Stage.xlsx
+++ b/config/excel/Stage.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\excel\trunk\global\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F15C173-CF05-4C3C-8536-17FA62D9907D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="32040" windowHeight="17020"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="73">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -192,74 +198,58 @@
     <t>pic1</t>
   </si>
   <si>
+    <t>100101</t>
+  </si>
+  <si>
+    <t>pic2</t>
+  </si>
+  <si>
+    <t>关卡2</t>
+  </si>
+  <si>
+    <t>100201</t>
+  </si>
+  <si>
+    <t>pic3</t>
+  </si>
+  <si>
+    <t>关卡3</t>
+  </si>
+  <si>
+    <t>100301</t>
+  </si>
+  <si>
+    <t>pic4</t>
+  </si>
+  <si>
+    <t>关卡4</t>
+  </si>
+  <si>
+    <t>100401</t>
+  </si>
+  <si>
+    <t>pic5</t>
+  </si>
+  <si>
+    <t>关卡5</t>
+  </si>
+  <si>
+    <t>100501,100502,100503</t>
+  </si>
+  <si>
     <t>关卡1</t>
-  </si>
-  <si>
-    <t>关卡1描述</t>
-  </si>
-  <si>
-    <t>100101</t>
-  </si>
-  <si>
-    <t>pic2</t>
-  </si>
-  <si>
-    <t>关卡2</t>
-  </si>
-  <si>
-    <t>关卡2描述</t>
-  </si>
-  <si>
-    <t>100201</t>
-  </si>
-  <si>
-    <t>pic3</t>
-  </si>
-  <si>
-    <t>关卡3</t>
-  </si>
-  <si>
-    <t>关卡3描述</t>
-  </si>
-  <si>
-    <t>100301</t>
-  </si>
-  <si>
-    <t>pic4</t>
-  </si>
-  <si>
-    <t>关卡4</t>
-  </si>
-  <si>
-    <t>关卡4描述</t>
-  </si>
-  <si>
-    <t>100401</t>
-  </si>
-  <si>
-    <t>pic5</t>
-  </si>
-  <si>
-    <t>关卡5</t>
-  </si>
-  <si>
-    <t>关卡5描述</t>
-  </si>
-  <si>
-    <t>100501,100502,100503</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先击杀种族克制的目标</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +262,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -285,6 +276,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -293,167 +285,25 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,8 +324,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor theme="4" tint="0.799951170384838"/>
+        <fgColor theme="4" tint="0.79992065187536243"/>
+        <bgColor theme="4" tint="0.79992065187536243"/>
       </patternFill>
     </fill>
     <fill>
@@ -490,194 +340,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -812,260 +476,18 @@
         <color theme="1"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </top>
       <bottom style="thin">
         <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1151,98 +573,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="C1:W24" totalsRowShown="0">
-  <autoFilter ref="C1:W24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表3" displayName="表3" ref="C1:W24" totalsRowShown="0">
+  <autoFilter ref="C1:W24" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="21">
-    <tableColumn id="1" name="关卡id"/>
-    <tableColumn id="2" name="前置关卡id"/>
-    <tableColumn id="3" name="解锁条件id"/>
-    <tableColumn id="4" name="消耗体力"/>
-    <tableColumn id="5" name="所属章节"/>
-    <tableColumn id="6" name="关卡图"/>
-    <tableColumn id="7" name="关卡名"/>
-    <tableColumn id="8" name="关卡类型"/>
-    <tableColumn id="9" name="关卡描述"/>
-    <tableColumn id="10" name="关卡胜利条件"/>
-    <tableColumn id="11" name="关卡失败条件"/>
-    <tableColumn id="12" name="成就条件id"/>
-    <tableColumn id="13" name="星级挑战条件1"/>
-    <tableColumn id="14" name="星级挑战条件2"/>
-    <tableColumn id="15" name="星级挑战条件3"/>
-    <tableColumn id="16" name="星级挑战条件"/>
-    <tableColumn id="17" name="首次通关掉落id"/>
-    <tableColumn id="18" name="通关掉落id"/>
-    <tableColumn id="19" name="成就奖励id"/>
-    <tableColumn id="20" name="每日挑战次数"/>
-    <tableColumn id="21" name="波数ID"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="关卡id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="前置关卡id"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="解锁条件id"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="消耗体力"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="所属章节"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="关卡图"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="关卡名"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="关卡类型"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="关卡描述"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="关卡胜利条件"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="关卡失败条件"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="成就条件id"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="星级挑战条件1"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="星级挑战条件2"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="星级挑战条件3"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="星级挑战条件"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="首次通关掉落id"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="通关掉落id"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="成就奖励id"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="每日挑战次数"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="波数ID"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1500,23 +878,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="6" topLeftCell="Q7" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="10" ySplit="6" topLeftCell="K7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T13" sqref="T13"/>
+      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -1526,7 +903,7 @@
     <col min="9" max="9" width="9.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.375" style="1" customWidth="1"/>
     <col min="11" max="13" width="15" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.4285714285714" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.375" style="1" customWidth="1"/>
     <col min="15" max="15" width="15.125" style="1" customWidth="1"/>
     <col min="16" max="17" width="16.25" style="1" customWidth="1"/>
     <col min="18" max="18" width="24.125" style="1" customWidth="1"/>
@@ -1607,7 +984,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" ht="38" spans="1:23">
+    <row r="2" spans="1:23" ht="42.75">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>23</v>
@@ -1638,7 +1015,7 @@
       <c r="V2" s="24"/>
       <c r="W2" s="24"/>
     </row>
-    <row r="3" spans="2:23">
+    <row r="3" spans="1:23">
       <c r="B3" s="8" t="s">
         <v>26</v>
       </c>
@@ -1700,7 +1077,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="2:23">
+    <row r="4" spans="1:23">
       <c r="B4" s="8" t="s">
         <v>45</v>
       </c>
@@ -1762,7 +1139,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:23">
+    <row r="5" spans="1:23">
       <c r="B5" s="8" t="s">
         <v>51</v>
       </c>
@@ -1794,7 +1171,7 @@
       <c r="V5" s="25"/>
       <c r="W5" s="25"/>
     </row>
-    <row r="6" spans="2:23">
+    <row r="6" spans="1:23">
       <c r="B6" s="8" t="s">
         <v>53</v>
       </c>
@@ -1856,7 +1233,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" ht="16.8" spans="2:23">
+    <row r="7" spans="1:23">
       <c r="B7" s="8"/>
       <c r="C7" s="7">
         <v>1001001</v>
@@ -1876,30 +1253,34 @@
       <c r="H7" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="17" t="s">
-        <v>58</v>
+      <c r="I7" s="30" t="s">
+        <v>71</v>
       </c>
       <c r="J7" s="13">
         <v>0</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+        <v>72</v>
+      </c>
+      <c r="L7" s="13">
+        <v>1</v>
+      </c>
+      <c r="M7" s="13">
+        <v>2</v>
+      </c>
       <c r="N7" s="13"/>
       <c r="O7" s="13">
         <v>1</v>
       </c>
       <c r="P7" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R7" s="13" t="str">
         <f>O7&amp;","&amp;P7&amp;","&amp;Q7</f>
-        <v>1,2,3</v>
+        <v>1,1,1</v>
       </c>
       <c r="S7" s="28">
         <v>2000</v>
@@ -1909,19 +1290,19 @@
       </c>
       <c r="U7" s="28"/>
       <c r="V7" s="28">
-        <v>9</v>
-      </c>
-      <c r="W7" s="30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" ht="16.8" spans="2:23">
+        <v>10</v>
+      </c>
+      <c r="W7" s="29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="B8" s="8"/>
       <c r="C8" s="7">
         <v>1001002</v>
       </c>
       <c r="D8" s="7">
-        <v>1</v>
+        <v>1001002</v>
       </c>
       <c r="E8" s="11">
         <v>0</v>
@@ -1933,32 +1314,36 @@
         <v>1</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J8" s="14">
         <v>0</v>
       </c>
-      <c r="K8" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
+      <c r="K8" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="14">
+        <v>1</v>
+      </c>
+      <c r="M8" s="14">
+        <v>2</v>
+      </c>
       <c r="N8" s="26"/>
       <c r="O8" s="13">
         <v>1</v>
       </c>
       <c r="P8" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R8" s="14" t="str">
         <f>O8&amp;","&amp;P8&amp;","&amp;Q8</f>
-        <v>1,2,3</v>
+        <v>1,1,1</v>
       </c>
       <c r="S8" s="14">
         <v>2001</v>
@@ -1968,55 +1353,59 @@
       </c>
       <c r="U8" s="14"/>
       <c r="V8" s="14">
-        <v>9</v>
-      </c>
-      <c r="W8" s="30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" ht="16.8" spans="3:23">
+        <v>10</v>
+      </c>
+      <c r="W8" s="29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="C9" s="7">
         <v>1001003</v>
       </c>
       <c r="D9" s="7">
-        <v>2</v>
+        <v>1001003</v>
       </c>
       <c r="E9" s="11">
         <v>0</v>
       </c>
       <c r="F9" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G9" s="13">
         <v>1</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J9" s="13">
         <v>2</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
+        <v>72</v>
+      </c>
+      <c r="L9" s="13">
+        <v>1</v>
+      </c>
+      <c r="M9" s="13">
+        <v>2</v>
+      </c>
       <c r="N9" s="13"/>
       <c r="O9" s="13">
         <v>1</v>
       </c>
       <c r="P9" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R9" s="13" t="str">
         <f t="shared" ref="R9:R11" si="0">O9&amp;","&amp;P9&amp;","&amp;Q9</f>
-        <v>1,2,3</v>
+        <v>1,1,1</v>
       </c>
       <c r="S9" s="28">
         <v>2002</v>
@@ -2026,18 +1415,18 @@
       </c>
       <c r="U9" s="28"/>
       <c r="V9" s="28">
-        <v>9</v>
-      </c>
-      <c r="W9" s="30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" ht="16.8" spans="3:23">
+        <v>10</v>
+      </c>
+      <c r="W9" s="29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="C10" s="7">
         <v>1001004</v>
       </c>
       <c r="D10" s="7">
-        <v>3</v>
+        <v>1001004</v>
       </c>
       <c r="E10" s="11">
         <v>0</v>
@@ -2049,32 +1438,36 @@
         <v>1</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J10" s="14">
         <v>0</v>
       </c>
-      <c r="K10" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
+      <c r="K10" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="14">
+        <v>1</v>
+      </c>
+      <c r="M10" s="14">
+        <v>2</v>
+      </c>
       <c r="N10" s="26"/>
       <c r="O10" s="13">
         <v>1</v>
       </c>
       <c r="P10" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R10" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>1,2,3</v>
+        <v>1,1,1</v>
       </c>
       <c r="S10" s="14">
         <v>2003</v>
@@ -2084,18 +1477,18 @@
       </c>
       <c r="U10" s="14"/>
       <c r="V10" s="14">
-        <v>9</v>
-      </c>
-      <c r="W10" s="30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" ht="16.8" spans="3:23">
+        <v>10</v>
+      </c>
+      <c r="W10" s="29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="C11" s="7">
         <v>1001005</v>
       </c>
       <c r="D11" s="7">
-        <v>4</v>
+        <v>1001005</v>
       </c>
       <c r="E11" s="11">
         <v>0</v>
@@ -2107,32 +1500,36 @@
         <v>1</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J11" s="13">
         <v>0</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
+        <v>72</v>
+      </c>
+      <c r="L11" s="13">
+        <v>1</v>
+      </c>
+      <c r="M11" s="13">
+        <v>2</v>
+      </c>
       <c r="N11" s="13"/>
       <c r="O11" s="13">
         <v>1</v>
       </c>
       <c r="P11" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>1,2,3</v>
+        <v>1,1,1</v>
       </c>
       <c r="S11" s="28">
         <v>2004</v>
@@ -2142,13 +1539,13 @@
       </c>
       <c r="U11" s="28"/>
       <c r="V11" s="28">
-        <v>9</v>
-      </c>
-      <c r="W11" s="30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" ht="16.8" spans="3:23">
+        <v>10</v>
+      </c>
+      <c r="W11" s="29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="11"/>
@@ -2171,7 +1568,7 @@
       <c r="V12" s="14"/>
       <c r="W12" s="14"/>
     </row>
-    <row r="13" ht="16.8" spans="3:23">
+    <row r="13" spans="1:23">
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="11"/>
@@ -2194,7 +1591,7 @@
       <c r="V13" s="28"/>
       <c r="W13" s="28"/>
     </row>
-    <row r="14" ht="16.8" spans="3:23">
+    <row r="14" spans="1:23">
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="11"/>
@@ -2217,7 +1614,7 @@
       <c r="V14" s="14"/>
       <c r="W14" s="14"/>
     </row>
-    <row r="15" ht="16.8" spans="3:23">
+    <row r="15" spans="1:23">
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="11"/>
@@ -2240,7 +1637,7 @@
       <c r="V15" s="28"/>
       <c r="W15" s="28"/>
     </row>
-    <row r="16" ht="16.8" spans="3:23">
+    <row r="16" spans="1:23">
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="11"/>
@@ -2263,7 +1660,7 @@
       <c r="V16" s="14"/>
       <c r="W16" s="14"/>
     </row>
-    <row r="17" ht="16.8" spans="3:23">
+    <row r="17" spans="3:23">
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="11"/>
@@ -2286,7 +1683,7 @@
       <c r="V17" s="28"/>
       <c r="W17" s="28"/>
     </row>
-    <row r="18" ht="16.8" spans="3:23">
+    <row r="18" spans="3:23">
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="11"/>
@@ -2309,7 +1706,7 @@
       <c r="V18" s="14"/>
       <c r="W18" s="14"/>
     </row>
-    <row r="19" ht="16.8" spans="3:23">
+    <row r="19" spans="3:23">
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="11"/>
@@ -2332,7 +1729,7 @@
       <c r="V19" s="28"/>
       <c r="W19" s="28"/>
     </row>
-    <row r="20" ht="16.8" spans="3:23">
+    <row r="20" spans="3:23">
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="11"/>
@@ -2355,7 +1752,7 @@
       <c r="V20" s="14"/>
       <c r="W20" s="14"/>
     </row>
-    <row r="21" ht="16.8" spans="3:23">
+    <row r="21" spans="3:23">
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="11"/>
@@ -2378,7 +1775,7 @@
       <c r="V21" s="28"/>
       <c r="W21" s="28"/>
     </row>
-    <row r="22" ht="16.8" spans="3:23">
+    <row r="22" spans="3:23">
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="11"/>
@@ -2401,7 +1798,7 @@
       <c r="V22" s="14"/>
       <c r="W22" s="14"/>
     </row>
-    <row r="23" ht="16.8" spans="3:23">
+    <row r="23" spans="3:23">
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="11"/>
@@ -2424,7 +1821,7 @@
       <c r="V23" s="28"/>
       <c r="W23" s="28"/>
     </row>
-    <row r="24" ht="16.8" spans="3:23">
+    <row r="24" spans="3:23">
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="11"/>
@@ -2448,9 +1845,9 @@
       <c r="W24" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/config/excel/Stage.xlsx
+++ b/config/excel/Stage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F15C173-CF05-4C3C-8536-17FA62D9907D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B902F5FA-221B-493A-8DC4-7AA6835BFD2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -890,7 +890,7 @@
       <pane xSplit="10" ySplit="6" topLeftCell="K7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1242,7 +1242,7 @@
         <v>-1</v>
       </c>
       <c r="E7" s="11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F7" s="11">
         <v>6</v>
@@ -1268,7 +1268,9 @@
       <c r="M7" s="13">
         <v>2</v>
       </c>
-      <c r="N7" s="13"/>
+      <c r="N7" s="13">
+        <v>-1</v>
+      </c>
       <c r="O7" s="13">
         <v>1</v>
       </c>
@@ -1302,10 +1304,10 @@
         <v>1001002</v>
       </c>
       <c r="D8" s="7">
-        <v>1001002</v>
+        <v>1001001</v>
       </c>
       <c r="E8" s="11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F8" s="11">
         <v>6</v>
@@ -1331,7 +1333,9 @@
       <c r="M8" s="14">
         <v>2</v>
       </c>
-      <c r="N8" s="26"/>
+      <c r="N8" s="26">
+        <v>-1</v>
+      </c>
       <c r="O8" s="13">
         <v>1</v>
       </c>
@@ -1364,10 +1368,10 @@
         <v>1001003</v>
       </c>
       <c r="D9" s="7">
-        <v>1001003</v>
+        <v>1001002</v>
       </c>
       <c r="E9" s="11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F9" s="11">
         <v>6</v>
@@ -1393,7 +1397,9 @@
       <c r="M9" s="13">
         <v>2</v>
       </c>
-      <c r="N9" s="13"/>
+      <c r="N9" s="13">
+        <v>-1</v>
+      </c>
       <c r="O9" s="13">
         <v>1</v>
       </c>
@@ -1426,10 +1432,10 @@
         <v>1001004</v>
       </c>
       <c r="D10" s="7">
-        <v>1001004</v>
+        <v>1001003</v>
       </c>
       <c r="E10" s="11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F10" s="11">
         <v>6</v>
@@ -1455,7 +1461,9 @@
       <c r="M10" s="14">
         <v>2</v>
       </c>
-      <c r="N10" s="26"/>
+      <c r="N10" s="26">
+        <v>-1</v>
+      </c>
       <c r="O10" s="13">
         <v>1</v>
       </c>
@@ -1488,10 +1496,10 @@
         <v>1001005</v>
       </c>
       <c r="D11" s="7">
-        <v>1001005</v>
+        <v>1001004</v>
       </c>
       <c r="E11" s="11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F11" s="11">
         <v>6</v>
@@ -1517,7 +1525,9 @@
       <c r="M11" s="13">
         <v>2</v>
       </c>
-      <c r="N11" s="13"/>
+      <c r="N11" s="13">
+        <v>-1</v>
+      </c>
       <c r="O11" s="13">
         <v>1</v>
       </c>
@@ -1847,9 +1857,9 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/config/excel/Stage.xlsx
+++ b/config/excel/Stage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\excel\trunk\global\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B902F5FA-221B-493A-8DC4-7AA6835BFD2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0E4524-5B97-4ECB-8561-7E79B89A4711}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="78">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -234,14 +234,37 @@
     <t>关卡5</t>
   </si>
   <si>
-    <t>100501,100502,100503</t>
-  </si>
-  <si>
     <t>关卡1</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>优先击杀种族克制的目标</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>友军上阵英雄数量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroNum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>友军上阵
+英雄数量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100501</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂未实现
+多波次</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -487,7 +510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -578,12 +601,38 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -597,9 +646,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表3" displayName="表3" ref="C1:W24" totalsRowShown="0">
-  <autoFilter ref="C1:W24" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表3" displayName="表3" ref="C1:X24" totalsRowShown="0">
+  <autoFilter ref="C1:X24" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="关卡id"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="前置关卡id"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="解锁条件id"/>
@@ -621,6 +670,7 @@
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="成就奖励id"/>
     <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="每日挑战次数"/>
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="波数ID"/>
+    <tableColumn id="22" xr3:uid="{749E6A9A-F1D8-440F-BADD-DA6A3AEE6039}" name="友军上阵英雄数量" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -884,13 +934,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="6" topLeftCell="K7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="6" topLeftCell="S7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8:D11"/>
+      <selection pane="bottomRight" activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -909,11 +959,11 @@
     <col min="18" max="18" width="24.125" style="1" customWidth="1"/>
     <col min="19" max="21" width="15.75" style="1" customWidth="1"/>
     <col min="22" max="22" width="14" style="1" customWidth="1"/>
-    <col min="23" max="23" width="19.25" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="1"/>
+    <col min="23" max="24" width="12.625" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -983,8 +1033,11 @@
       <c r="W1" s="22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" ht="42.75">
+      <c r="X1" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="42.75">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>23</v>
@@ -1013,9 +1066,12 @@
       <c r="T2" s="24"/>
       <c r="U2" s="24"/>
       <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="W2" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="X2" s="24"/>
+    </row>
+    <row r="3" spans="1:24">
       <c r="B3" s="8" t="s">
         <v>26</v>
       </c>
@@ -1076,8 +1132,11 @@
       <c r="W3" s="20" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="28.5">
       <c r="B4" s="8" t="s">
         <v>45</v>
       </c>
@@ -1138,8 +1197,11 @@
       <c r="W4" s="20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4" s="31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="B5" s="8" t="s">
         <v>51</v>
       </c>
@@ -1170,8 +1232,9 @@
       <c r="U5" s="25"/>
       <c r="V5" s="25"/>
       <c r="W5" s="25"/>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="X5" s="25"/>
+    </row>
+    <row r="6" spans="1:24">
       <c r="B6" s="8" t="s">
         <v>53</v>
       </c>
@@ -1232,8 +1295,11 @@
       <c r="W6" s="20" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="B7" s="8"/>
       <c r="C7" s="7">
         <v>1001001</v>
@@ -1254,13 +1320,13 @@
         <v>57</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J7" s="13">
         <v>0</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L7" s="13">
         <v>1</v>
@@ -1297,8 +1363,11 @@
       <c r="W7" s="29" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X7" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="B8" s="8"/>
       <c r="C8" s="7">
         <v>1001002</v>
@@ -1325,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L8" s="14">
         <v>1</v>
@@ -1362,8 +1431,11 @@
       <c r="W8" s="29" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="C9" s="7">
         <v>1001003</v>
       </c>
@@ -1389,7 +1461,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L9" s="13">
         <v>1</v>
@@ -1426,8 +1498,11 @@
       <c r="W9" s="29" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="C10" s="7">
         <v>1001004</v>
       </c>
@@ -1453,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L10" s="14">
         <v>1</v>
@@ -1490,8 +1565,11 @@
       <c r="W10" s="29" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="C11" s="7">
         <v>1001005</v>
       </c>
@@ -1517,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L11" s="13">
         <v>1</v>
@@ -1552,10 +1630,13 @@
         <v>10</v>
       </c>
       <c r="W11" s="29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
+        <v>76</v>
+      </c>
+      <c r="X11" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="11"/>
@@ -1577,8 +1658,9 @@
       <c r="U12" s="14"/>
       <c r="V12" s="14"/>
       <c r="W12" s="14"/>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12" s="14"/>
+    </row>
+    <row r="13" spans="1:24">
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="11"/>
@@ -1600,8 +1682,9 @@
       <c r="U13" s="28"/>
       <c r="V13" s="28"/>
       <c r="W13" s="28"/>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13" s="28"/>
+    </row>
+    <row r="14" spans="1:24">
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="11"/>
@@ -1623,8 +1706,9 @@
       <c r="U14" s="14"/>
       <c r="V14" s="14"/>
       <c r="W14" s="14"/>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14" s="14"/>
+    </row>
+    <row r="15" spans="1:24">
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="11"/>
@@ -1646,8 +1730,9 @@
       <c r="U15" s="28"/>
       <c r="V15" s="28"/>
       <c r="W15" s="28"/>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15" s="28"/>
+    </row>
+    <row r="16" spans="1:24">
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="11"/>
@@ -1669,8 +1754,9 @@
       <c r="U16" s="14"/>
       <c r="V16" s="14"/>
       <c r="W16" s="14"/>
-    </row>
-    <row r="17" spans="3:23">
+      <c r="X16" s="14"/>
+    </row>
+    <row r="17" spans="3:24">
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="11"/>
@@ -1692,8 +1778,9 @@
       <c r="U17" s="28"/>
       <c r="V17" s="28"/>
       <c r="W17" s="28"/>
-    </row>
-    <row r="18" spans="3:23">
+      <c r="X17" s="28"/>
+    </row>
+    <row r="18" spans="3:24">
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="11"/>
@@ -1715,8 +1802,9 @@
       <c r="U18" s="14"/>
       <c r="V18" s="14"/>
       <c r="W18" s="14"/>
-    </row>
-    <row r="19" spans="3:23">
+      <c r="X18" s="14"/>
+    </row>
+    <row r="19" spans="3:24">
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="11"/>
@@ -1738,8 +1826,9 @@
       <c r="U19" s="28"/>
       <c r="V19" s="28"/>
       <c r="W19" s="28"/>
-    </row>
-    <row r="20" spans="3:23">
+      <c r="X19" s="28"/>
+    </row>
+    <row r="20" spans="3:24">
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="11"/>
@@ -1761,8 +1850,9 @@
       <c r="U20" s="14"/>
       <c r="V20" s="14"/>
       <c r="W20" s="14"/>
-    </row>
-    <row r="21" spans="3:23">
+      <c r="X20" s="14"/>
+    </row>
+    <row r="21" spans="3:24">
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="11"/>
@@ -1784,8 +1874,9 @@
       <c r="U21" s="28"/>
       <c r="V21" s="28"/>
       <c r="W21" s="28"/>
-    </row>
-    <row r="22" spans="3:23">
+      <c r="X21" s="28"/>
+    </row>
+    <row r="22" spans="3:24">
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="11"/>
@@ -1807,8 +1898,9 @@
       <c r="U22" s="14"/>
       <c r="V22" s="14"/>
       <c r="W22" s="14"/>
-    </row>
-    <row r="23" spans="3:23">
+      <c r="X22" s="14"/>
+    </row>
+    <row r="23" spans="3:24">
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="11"/>
@@ -1830,8 +1922,9 @@
       <c r="U23" s="28"/>
       <c r="V23" s="28"/>
       <c r="W23" s="28"/>
-    </row>
-    <row r="24" spans="3:23">
+      <c r="X23" s="28"/>
+    </row>
+    <row r="24" spans="3:24">
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="11"/>
@@ -1853,6 +1946,7 @@
       <c r="U24" s="14"/>
       <c r="V24" s="14"/>
       <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/config/excel/Stage.xlsx
+++ b/config/excel/Stage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0E4524-5B97-4ECB-8561-7E79B89A4711}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFD9504-5DF0-4C9A-B0FB-1E0D46F4F469}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="84">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -242,10 +242,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>友军上阵英雄数量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>heroNum</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -265,6 +261,36 @@
   <si>
     <t>暂未实现
 多波次</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>必上英雄</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroIdLimit</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>限定必上
+英雄ID
+根据顺序</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]int32</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,8</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -510,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -606,13 +632,57 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79992065187536243"/>
+          <bgColor theme="4" tint="0.79992065187536243"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -646,9 +716,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表3" displayName="表3" ref="C1:X24" totalsRowShown="0">
-  <autoFilter ref="C1:X24" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表3" displayName="表3" ref="C1:Y24" totalsRowShown="0">
+  <autoFilter ref="C1:Y24" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="关卡id"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="前置关卡id"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="解锁条件id"/>
@@ -670,7 +740,8 @@
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="成就奖励id"/>
     <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="每日挑战次数"/>
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="波数ID"/>
-    <tableColumn id="22" xr3:uid="{749E6A9A-F1D8-440F-BADD-DA6A3AEE6039}" name="友军上阵英雄数量" dataDxfId="0"/>
+    <tableColumn id="22" xr3:uid="{749E6A9A-F1D8-440F-BADD-DA6A3AEE6039}" name="友军上阵_x000a_英雄数量" dataDxfId="1"/>
+    <tableColumn id="23" xr3:uid="{44E7FE64-368D-4B71-B391-B40E57D3C828}" name="必上英雄" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -934,13 +1005,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="10" ySplit="6" topLeftCell="S7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W3" sqref="W3"/>
+      <selection pane="bottomRight" activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -957,13 +1028,16 @@
     <col min="15" max="15" width="15.125" style="1" customWidth="1"/>
     <col min="16" max="17" width="16.25" style="1" customWidth="1"/>
     <col min="18" max="18" width="24.125" style="1" customWidth="1"/>
-    <col min="19" max="21" width="15.75" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.75" style="1" customWidth="1"/>
+    <col min="20" max="20" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.75" style="1" customWidth="1"/>
     <col min="22" max="22" width="14" style="1" customWidth="1"/>
     <col min="23" max="24" width="12.625" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="1"/>
+    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25" ht="28.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1033,11 +1107,14 @@
       <c r="W1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="42.75">
+      <c r="X1" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y1" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="42.75">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>23</v>
@@ -1067,11 +1144,14 @@
       <c r="U2" s="24"/>
       <c r="V2" s="24"/>
       <c r="W2" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X2" s="24"/>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="B3" s="8" t="s">
         <v>26</v>
       </c>
@@ -1133,10 +1213,13 @@
         <v>44</v>
       </c>
       <c r="X3" s="20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="28.5">
+        <v>72</v>
+      </c>
+      <c r="Y3" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="28.5">
       <c r="B4" s="8" t="s">
         <v>45</v>
       </c>
@@ -1198,10 +1281,13 @@
         <v>22</v>
       </c>
       <c r="X4" s="31" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
+        <v>73</v>
+      </c>
+      <c r="Y4" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="B5" s="8" t="s">
         <v>51</v>
       </c>
@@ -1233,8 +1319,9 @@
       <c r="V5" s="25"/>
       <c r="W5" s="25"/>
       <c r="X5" s="25"/>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5" s="25"/>
+    </row>
+    <row r="6" spans="1:25">
       <c r="B6" s="8" t="s">
         <v>53</v>
       </c>
@@ -1296,10 +1383,13 @@
         <v>56</v>
       </c>
       <c r="X6" s="20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
+        <v>74</v>
+      </c>
+      <c r="Y6" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="B7" s="8"/>
       <c r="C7" s="7">
         <v>1001001</v>
@@ -1366,8 +1456,11 @@
       <c r="X7" s="29">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="Y7" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="B8" s="8"/>
       <c r="C8" s="7">
         <v>1001002</v>
@@ -1434,8 +1527,11 @@
       <c r="X8" s="29">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Y8" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="C9" s="7">
         <v>1001003</v>
       </c>
@@ -1501,8 +1597,11 @@
       <c r="X9" s="29">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Y9" s="29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="C10" s="7">
         <v>1001004</v>
       </c>
@@ -1568,8 +1667,11 @@
       <c r="X10" s="29">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="Y10" s="29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="C11" s="7">
         <v>1001005</v>
       </c>
@@ -1630,13 +1732,14 @@
         <v>10</v>
       </c>
       <c r="W11" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="X11" s="29">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="Y11" s="29"/>
+    </row>
+    <row r="12" spans="1:25">
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="11"/>
@@ -1659,8 +1762,9 @@
       <c r="V12" s="14"/>
       <c r="W12" s="14"/>
       <c r="X12" s="14"/>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="Y12" s="14"/>
+    </row>
+    <row r="13" spans="1:25">
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="11"/>
@@ -1683,8 +1787,9 @@
       <c r="V13" s="28"/>
       <c r="W13" s="28"/>
       <c r="X13" s="28"/>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="Y13" s="28"/>
+    </row>
+    <row r="14" spans="1:25">
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="11"/>
@@ -1707,8 +1812,9 @@
       <c r="V14" s="14"/>
       <c r="W14" s="14"/>
       <c r="X14" s="14"/>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="Y14" s="14"/>
+    </row>
+    <row r="15" spans="1:25">
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="11"/>
@@ -1731,8 +1837,9 @@
       <c r="V15" s="28"/>
       <c r="W15" s="28"/>
       <c r="X15" s="28"/>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="Y15" s="28"/>
+    </row>
+    <row r="16" spans="1:25">
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="11"/>
@@ -1755,8 +1862,9 @@
       <c r="V16" s="14"/>
       <c r="W16" s="14"/>
       <c r="X16" s="14"/>
-    </row>
-    <row r="17" spans="3:24">
+      <c r="Y16" s="14"/>
+    </row>
+    <row r="17" spans="3:25">
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="11"/>
@@ -1779,8 +1887,9 @@
       <c r="V17" s="28"/>
       <c r="W17" s="28"/>
       <c r="X17" s="28"/>
-    </row>
-    <row r="18" spans="3:24">
+      <c r="Y17" s="28"/>
+    </row>
+    <row r="18" spans="3:25">
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="11"/>
@@ -1803,8 +1912,9 @@
       <c r="V18" s="14"/>
       <c r="W18" s="14"/>
       <c r="X18" s="14"/>
-    </row>
-    <row r="19" spans="3:24">
+      <c r="Y18" s="14"/>
+    </row>
+    <row r="19" spans="3:25">
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="11"/>
@@ -1827,8 +1937,9 @@
       <c r="V19" s="28"/>
       <c r="W19" s="28"/>
       <c r="X19" s="28"/>
-    </row>
-    <row r="20" spans="3:24">
+      <c r="Y19" s="28"/>
+    </row>
+    <row r="20" spans="3:25">
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="11"/>
@@ -1851,8 +1962,9 @@
       <c r="V20" s="14"/>
       <c r="W20" s="14"/>
       <c r="X20" s="14"/>
-    </row>
-    <row r="21" spans="3:24">
+      <c r="Y20" s="14"/>
+    </row>
+    <row r="21" spans="3:25">
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="11"/>
@@ -1875,8 +1987,9 @@
       <c r="V21" s="28"/>
       <c r="W21" s="28"/>
       <c r="X21" s="28"/>
-    </row>
-    <row r="22" spans="3:24">
+      <c r="Y21" s="28"/>
+    </row>
+    <row r="22" spans="3:25">
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="11"/>
@@ -1899,8 +2012,9 @@
       <c r="V22" s="14"/>
       <c r="W22" s="14"/>
       <c r="X22" s="14"/>
-    </row>
-    <row r="23" spans="3:24">
+      <c r="Y22" s="14"/>
+    </row>
+    <row r="23" spans="3:25">
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="11"/>
@@ -1923,8 +2037,9 @@
       <c r="V23" s="28"/>
       <c r="W23" s="28"/>
       <c r="X23" s="28"/>
-    </row>
-    <row r="24" spans="3:24">
+      <c r="Y23" s="28"/>
+    </row>
+    <row r="24" spans="3:25">
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="11"/>
@@ -1947,6 +2062,7 @@
       <c r="V24" s="14"/>
       <c r="W24" s="14"/>
       <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/config/excel/Stage.xlsx
+++ b/config/excel/Stage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\excel\trunk\global\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFD9504-5DF0-4C9A-B0FB-1E0D46F4F469}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E7866E-ECBA-46E4-9855-65B7C11DD9B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage" sheetId="2" r:id="rId1"/>
@@ -1008,10 +1008,10 @@
   <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="6" topLeftCell="S7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="6" topLeftCell="W7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y13" sqref="Y13"/>
+      <selection pane="bottomRight" activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config/excel/Stage.xlsx
+++ b/config/excel/Stage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E7866E-ECBA-46E4-9855-65B7C11DD9B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA7BD17-CA5C-4B26-B17D-A84AF6C0CB94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="85">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -290,7 +290,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3,8</t>
+    <t>2,1,8,3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,2,3,1</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1011,7 +1015,7 @@
       <pane xSplit="10" ySplit="6" topLeftCell="W7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y8" sqref="Y8"/>
+      <selection pane="bottomRight" activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1737,7 +1741,9 @@
       <c r="X11" s="29">
         <v>4</v>
       </c>
-      <c r="Y11" s="29"/>
+      <c r="Y11" s="29" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="12" spans="1:25">
       <c r="C12" s="7"/>

--- a/config/excel/Stage.xlsx
+++ b/config/excel/Stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA7BD17-CA5C-4B26-B17D-A84AF6C0CB94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92AC52E-A2F8-42B1-A4CA-29E0F2C45CBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -154,9 +154,6 @@
   </si>
   <si>
     <t>dailyTimes</t>
-  </si>
-  <si>
-    <t>waveID</t>
   </si>
   <si>
     <t>字段描述</t>
@@ -295,6 +292,38 @@
   </si>
   <si>
     <t>8,2,3,1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>scene</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>布阵ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>布阵点ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>waveID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>layoutID</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -540,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -640,12 +669,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
     <dxf>
       <font>
         <b val="0"/>
@@ -706,6 +741,89 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79992065187536243"/>
+          <bgColor theme="4" tint="0.79992065187536243"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79992065187536243"/>
+          <bgColor theme="4" tint="0.79992065187536243"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -720,9 +838,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表3" displayName="表3" ref="C1:Y24" totalsRowShown="0">
-  <autoFilter ref="C1:Y24" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表3" displayName="表3" ref="C1:AA24" totalsRowShown="0">
+  <autoFilter ref="C1:AA24" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="关卡id"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="前置关卡id"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="解锁条件id"/>
@@ -743,6 +861,8 @@
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="通关掉落id"/>
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="成就奖励id"/>
     <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="每日挑战次数"/>
+    <tableColumn id="24" xr3:uid="{94CBA06A-BFB9-4E67-B721-55DDDD41C4E4}" name="场景ID" dataDxfId="3"/>
+    <tableColumn id="25" xr3:uid="{79F9BC5C-CF27-4750-BC66-263073A37834}" name="布阵ID" dataDxfId="2"/>
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="波数ID"/>
     <tableColumn id="22" xr3:uid="{749E6A9A-F1D8-440F-BADD-DA6A3AEE6039}" name="友军上阵_x000a_英雄数量" dataDxfId="1"/>
     <tableColumn id="23" xr3:uid="{44E7FE64-368D-4B71-B391-B40E57D3C828}" name="必上英雄" dataDxfId="0"/>
@@ -1009,13 +1129,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:AA24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="6" topLeftCell="W7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="6" topLeftCell="U7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y9" sqref="Y9"/>
+      <selection pane="bottomRight" activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1035,13 +1155,13 @@
     <col min="19" max="19" width="15.75" style="1" customWidth="1"/>
     <col min="20" max="20" width="14.625" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.75" style="1" customWidth="1"/>
-    <col min="22" max="22" width="14" style="1" customWidth="1"/>
-    <col min="23" max="24" width="12.625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="1"/>
+    <col min="22" max="24" width="14" style="1" customWidth="1"/>
+    <col min="25" max="26" width="12.625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="28.5">
+    <row r="1" spans="1:27" ht="28.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1109,16 +1229,22 @@
         <v>21</v>
       </c>
       <c r="W1" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="X1" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y1" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="42.75">
+      <c r="Z1" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA1" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="42.75">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>23</v>
@@ -1147,15 +1273,17 @@
       <c r="T2" s="24"/>
       <c r="U2" s="24"/>
       <c r="V2" s="24"/>
-      <c r="W2" s="32" t="s">
-        <v>76</v>
-      </c>
+      <c r="W2" s="24"/>
       <c r="X2" s="24"/>
       <c r="Y2" s="32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
+        <v>75</v>
+      </c>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="B3" s="8" t="s">
         <v>26</v>
       </c>
@@ -1214,21 +1342,27 @@
         <v>43</v>
       </c>
       <c r="W3" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="X3" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y3" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z3" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA3" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="28.5">
+      <c r="B4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="X3" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y3" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="28.5">
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>3</v>
@@ -1240,7 +1374,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>7</v>
@@ -1255,10 +1389,10 @@
         <v>10</v>
       </c>
       <c r="L4" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>49</v>
       </c>
       <c r="N4" s="20" t="s">
         <v>13</v>
@@ -1267,7 +1401,7 @@
       <c r="P4" s="25"/>
       <c r="Q4" s="25"/>
       <c r="R4" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S4" s="25" t="s">
         <v>18</v>
@@ -1282,18 +1416,24 @@
         <v>21</v>
       </c>
       <c r="W4" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="X4" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="X4" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y4" s="31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Z4" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA4" s="31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="B5" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -1301,14 +1441,14 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J5" s="19"/>
       <c r="K5" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
@@ -1324,76 +1464,84 @@
       <c r="W5" s="25"/>
       <c r="X5" s="25"/>
       <c r="Y5" s="25"/>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+    </row>
+    <row r="6" spans="1:27">
       <c r="B6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="I6" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="J6" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>55</v>
-      </c>
       <c r="L6" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N6" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O6" s="25"/>
       <c r="P6" s="25"/>
       <c r="Q6" s="25"/>
       <c r="R6" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S6" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T6" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U6" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V6" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W6" s="20" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="X6" s="20" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="Y6" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
+        <v>55</v>
+      </c>
+      <c r="Z6" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA6" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="B7" s="8"/>
       <c r="C7" s="7">
         <v>1001001</v>
@@ -1411,16 +1559,16 @@
         <v>1</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J7" s="13">
         <v>0</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L7" s="13">
         <v>1</v>
@@ -1454,23 +1602,29 @@
       <c r="V7" s="28">
         <v>10</v>
       </c>
-      <c r="W7" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="X7" s="29">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="29">
+      <c r="W7" s="34">
+        <v>1</v>
+      </c>
+      <c r="X7" s="34">
+        <v>100101</v>
+      </c>
+      <c r="Y7" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z7" s="29">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="29">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:27">
       <c r="B8" s="8"/>
       <c r="C8" s="7">
         <v>1001002</v>
       </c>
       <c r="D8" s="7">
-        <v>1001001</v>
+        <v>-1</v>
       </c>
       <c r="E8" s="11">
         <v>-1</v>
@@ -1482,16 +1636,16 @@
         <v>1</v>
       </c>
       <c r="H8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="17" t="s">
         <v>59</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>60</v>
       </c>
       <c r="J8" s="14">
         <v>0</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L8" s="14">
         <v>1</v>
@@ -1525,22 +1679,28 @@
       <c r="V8" s="14">
         <v>10</v>
       </c>
-      <c r="W8" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="X8" s="29">
+      <c r="W8" s="35">
+        <v>1</v>
+      </c>
+      <c r="X8" s="35">
+        <v>100201</v>
+      </c>
+      <c r="Y8" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z8" s="29">
         <v>2</v>
       </c>
-      <c r="Y8" s="29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="AA8" s="29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="C9" s="7">
         <v>1001003</v>
       </c>
       <c r="D9" s="7">
-        <v>1001002</v>
+        <v>-1</v>
       </c>
       <c r="E9" s="11">
         <v>-1</v>
@@ -1552,16 +1712,16 @@
         <v>1</v>
       </c>
       <c r="H9" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="17" t="s">
         <v>62</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>63</v>
       </c>
       <c r="J9" s="13">
         <v>2</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L9" s="13">
         <v>1</v>
@@ -1595,22 +1755,28 @@
       <c r="V9" s="28">
         <v>10</v>
       </c>
-      <c r="W9" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="X9" s="29">
+      <c r="W9" s="34">
+        <v>1</v>
+      </c>
+      <c r="X9" s="34">
+        <v>100301</v>
+      </c>
+      <c r="Y9" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z9" s="29">
         <v>3</v>
       </c>
-      <c r="Y9" s="29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="AA9" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="C10" s="7">
         <v>1001004</v>
       </c>
       <c r="D10" s="7">
-        <v>1001003</v>
+        <v>-1</v>
       </c>
       <c r="E10" s="11">
         <v>-1</v>
@@ -1622,16 +1788,16 @@
         <v>1</v>
       </c>
       <c r="H10" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="17" t="s">
         <v>65</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>66</v>
       </c>
       <c r="J10" s="14">
         <v>0</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L10" s="14">
         <v>1</v>
@@ -1665,22 +1831,28 @@
       <c r="V10" s="14">
         <v>10</v>
       </c>
-      <c r="W10" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="X10" s="29">
+      <c r="W10" s="35">
+        <v>1</v>
+      </c>
+      <c r="X10" s="35">
+        <v>100401</v>
+      </c>
+      <c r="Y10" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z10" s="29">
         <v>4</v>
       </c>
-      <c r="Y10" s="29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="AA10" s="29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="C11" s="7">
         <v>1001005</v>
       </c>
       <c r="D11" s="7">
-        <v>1001004</v>
+        <v>-1</v>
       </c>
       <c r="E11" s="11">
         <v>-1</v>
@@ -1692,16 +1864,16 @@
         <v>1</v>
       </c>
       <c r="H11" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="17" t="s">
         <v>68</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>69</v>
       </c>
       <c r="J11" s="13">
         <v>0</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L11" s="13">
         <v>1</v>
@@ -1735,17 +1907,23 @@
       <c r="V11" s="28">
         <v>10</v>
       </c>
-      <c r="W11" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="X11" s="29">
+      <c r="W11" s="34">
+        <v>1</v>
+      </c>
+      <c r="X11" s="34">
+        <v>100501</v>
+      </c>
+      <c r="Y11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z11" s="29">
         <v>4</v>
       </c>
-      <c r="Y11" s="29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="AA11" s="29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="11"/>
@@ -1766,11 +1944,13 @@
       <c r="T12" s="14"/>
       <c r="U12" s="14"/>
       <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
       <c r="Y12" s="14"/>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+    </row>
+    <row r="13" spans="1:27">
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="11"/>
@@ -1791,11 +1971,13 @@
       <c r="T13" s="28"/>
       <c r="U13" s="28"/>
       <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
       <c r="Y13" s="28"/>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+    </row>
+    <row r="14" spans="1:27">
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="11"/>
@@ -1816,11 +1998,13 @@
       <c r="T14" s="14"/>
       <c r="U14" s="14"/>
       <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
       <c r="Y14" s="14"/>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+    </row>
+    <row r="15" spans="1:27">
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="11"/>
@@ -1841,11 +2025,13 @@
       <c r="T15" s="28"/>
       <c r="U15" s="28"/>
       <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="34"/>
       <c r="Y15" s="28"/>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+    </row>
+    <row r="16" spans="1:27">
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="11"/>
@@ -1866,11 +2052,13 @@
       <c r="T16" s="14"/>
       <c r="U16" s="14"/>
       <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
       <c r="Y16" s="14"/>
-    </row>
-    <row r="17" spans="3:25">
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+    </row>
+    <row r="17" spans="3:27">
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="11"/>
@@ -1891,11 +2079,13 @@
       <c r="T17" s="28"/>
       <c r="U17" s="28"/>
       <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
       <c r="Y17" s="28"/>
-    </row>
-    <row r="18" spans="3:25">
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+    </row>
+    <row r="18" spans="3:27">
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="11"/>
@@ -1916,11 +2106,13 @@
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
       <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
       <c r="Y18" s="14"/>
-    </row>
-    <row r="19" spans="3:25">
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+    </row>
+    <row r="19" spans="3:27">
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="11"/>
@@ -1941,11 +2133,13 @@
       <c r="T19" s="28"/>
       <c r="U19" s="28"/>
       <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
       <c r="Y19" s="28"/>
-    </row>
-    <row r="20" spans="3:25">
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+    </row>
+    <row r="20" spans="3:27">
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="11"/>
@@ -1966,11 +2160,13 @@
       <c r="T20" s="14"/>
       <c r="U20" s="14"/>
       <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
       <c r="Y20" s="14"/>
-    </row>
-    <row r="21" spans="3:25">
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+    </row>
+    <row r="21" spans="3:27">
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="11"/>
@@ -1991,11 +2187,13 @@
       <c r="T21" s="28"/>
       <c r="U21" s="28"/>
       <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="34"/>
       <c r="Y21" s="28"/>
-    </row>
-    <row r="22" spans="3:25">
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+    </row>
+    <row r="22" spans="3:27">
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="11"/>
@@ -2016,11 +2214,13 @@
       <c r="T22" s="14"/>
       <c r="U22" s="14"/>
       <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
       <c r="Y22" s="14"/>
-    </row>
-    <row r="23" spans="3:25">
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+    </row>
+    <row r="23" spans="3:27">
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="11"/>
@@ -2041,11 +2241,13 @@
       <c r="T23" s="28"/>
       <c r="U23" s="28"/>
       <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
       <c r="Y23" s="28"/>
-    </row>
-    <row r="24" spans="3:25">
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="28"/>
+    </row>
+    <row r="24" spans="3:27">
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="11"/>
@@ -2066,9 +2268,11 @@
       <c r="T24" s="14"/>
       <c r="U24" s="14"/>
       <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
       <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/config/excel/Stage.xlsx
+++ b/config/excel/Stage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92AC52E-A2F8-42B1-A4CA-29E0F2C45CBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659940BC-9723-42FD-B0BB-72B4EDAAE69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage" sheetId="2" r:id="rId1"/>
@@ -287,14 +287,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>2,1,8,3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,2,3,1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>场景ID</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -324,6 +316,14 @@
   </si>
   <si>
     <t>layoutID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1,4,3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,2,3,1</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1135,7 +1135,7 @@
       <pane xSplit="10" ySplit="6" topLeftCell="U7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X3" sqref="X3"/>
+      <selection pane="bottomRight" activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1229,10 +1229,10 @@
         <v>21</v>
       </c>
       <c r="W1" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="X1" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Y1" s="22" t="s">
         <v>22</v>
@@ -1342,13 +1342,13 @@
         <v>43</v>
       </c>
       <c r="W3" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="X3" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Y3" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z3" s="20" t="s">
         <v>71</v>
@@ -1416,10 +1416,10 @@
         <v>21</v>
       </c>
       <c r="W4" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="X4" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Y4" s="20" t="s">
         <v>22</v>
@@ -1526,10 +1526,10 @@
         <v>53</v>
       </c>
       <c r="W6" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="X6" s="20" t="s">
         <v>86</v>
-      </c>
-      <c r="X6" s="20" t="s">
-        <v>88</v>
       </c>
       <c r="Y6" s="20" t="s">
         <v>55</v>
@@ -1844,7 +1844,7 @@
         <v>4</v>
       </c>
       <c r="AA10" s="29" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -1920,7 +1920,7 @@
         <v>4</v>
       </c>
       <c r="AA11" s="29" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:27">
